--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.033582049584709</v>
+        <v>4.033582049584766</v>
       </c>
       <c r="C2">
-        <v>3.394112475171084</v>
+        <v>3.394112475171539</v>
       </c>
       <c r="D2">
-        <v>0.3915059846989379</v>
+        <v>0.3915059846985969</v>
       </c>
       <c r="E2">
-        <v>0.6141009277473444</v>
+        <v>0.6141009277473231</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.828146412388577</v>
+        <v>9.828146412388634</v>
       </c>
       <c r="I2">
-        <v>0.2222269864215036</v>
+        <v>0.222226986421532</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.379138866540302</v>
       </c>
       <c r="C3">
-        <v>2.869751546503608</v>
+        <v>2.869751546503096</v>
       </c>
       <c r="D3">
-        <v>0.3325112382537867</v>
+        <v>0.332511238253673</v>
       </c>
       <c r="E3">
-        <v>0.5178253639622099</v>
+        <v>0.5178253639622667</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.469321842067444</v>
+        <v>8.469321842067359</v>
       </c>
       <c r="I3">
-        <v>0.1869257353389173</v>
+        <v>0.1869257353388356</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.001613300189035</v>
+        <v>3.001613300189263</v>
       </c>
       <c r="C4">
         <v>2.564030505229539</v>
       </c>
       <c r="D4">
-        <v>0.2981667368897263</v>
+        <v>0.2981667368898258</v>
       </c>
       <c r="E4">
-        <v>0.4619069487300962</v>
+        <v>0.4619069487301459</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.671083778538389</v>
+        <v>7.671083778538531</v>
       </c>
       <c r="I4">
-        <v>0.1664463244309076</v>
+        <v>0.1664463244309644</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.852681559537302</v>
+        <v>2.852681559537473</v>
       </c>
       <c r="C5">
-        <v>2.44272061345373</v>
+        <v>2.442720613453389</v>
       </c>
       <c r="D5">
-        <v>0.284551986968907</v>
+        <v>0.284551986968566</v>
       </c>
       <c r="E5">
-        <v>0.439762016184055</v>
+        <v>0.4397620161840408</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.353057117893002</v>
+        <v>7.353057117892831</v>
       </c>
       <c r="I5">
-        <v>0.1583402906230447</v>
+        <v>0.1583402906230233</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.828217941965477</v>
+        <v>2.828217941965647</v>
       </c>
       <c r="C6">
-        <v>2.422754382966446</v>
+        <v>2.422754382966559</v>
       </c>
       <c r="D6">
-        <v>0.282311950912657</v>
+        <v>0.2823119509126002</v>
       </c>
       <c r="E6">
-        <v>0.4361195792571593</v>
+        <v>0.4361195792570811</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.30064132246747</v>
+        <v>7.300641322467328</v>
       </c>
       <c r="I6">
-        <v>0.157007208746986</v>
+        <v>0.1570072087470393</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.999586263523838</v>
       </c>
       <c r="C7">
-        <v>2.562382170265437</v>
+        <v>2.562382170264982</v>
       </c>
       <c r="D7">
-        <v>0.2979816885415261</v>
+        <v>0.297981688541185</v>
       </c>
       <c r="E7">
-        <v>0.4616058822629796</v>
+        <v>0.4616058822631786</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.666767492340881</v>
+        <v>7.66676749234108</v>
       </c>
       <c r="I7">
-        <v>0.1663361053312435</v>
+        <v>0.1663361053312578</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.80207564913951</v>
+        <v>3.802075649140022</v>
       </c>
       <c r="C8">
-        <v>3.20939680926449</v>
+        <v>3.209396809265399</v>
       </c>
       <c r="D8">
-        <v>0.3707130862384105</v>
+        <v>0.3707130862386521</v>
       </c>
       <c r="E8">
-        <v>0.5801330380414385</v>
+        <v>0.5801330380412963</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.350918318750416</v>
+        <v>9.350918318750189</v>
       </c>
       <c r="I8">
-        <v>0.2097655535325487</v>
+        <v>0.2097655535326197</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.642018582192975</v>
+        <v>5.642018582193543</v>
       </c>
       <c r="C9">
-        <v>4.656331942860788</v>
+        <v>4.656331942861584</v>
       </c>
       <c r="D9">
-        <v>0.5338066147032237</v>
+        <v>0.5338066147027973</v>
       </c>
       <c r="E9">
-        <v>0.8478006665230566</v>
+        <v>0.8478006665230851</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.04875077189146</v>
+        <v>13.04875077189152</v>
       </c>
       <c r="I9">
-        <v>0.3081833111685199</v>
+        <v>0.3081833111686052</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.310681740056282</v>
+        <v>7.310681740056509</v>
       </c>
       <c r="C10">
-        <v>5.931085385269398</v>
+        <v>5.931085385268375</v>
       </c>
       <c r="D10">
-        <v>0.6777215241067154</v>
+        <v>0.6777215241066301</v>
       </c>
       <c r="E10">
-        <v>1.086810487450606</v>
+        <v>1.086810487450578</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.23028332396171</v>
+        <v>16.23028332396194</v>
       </c>
       <c r="I10">
-        <v>0.3965624269948052</v>
+        <v>0.3965624269948975</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.201748262644685</v>
+        <v>8.201748262644628</v>
       </c>
       <c r="C11">
-        <v>6.598792415983212</v>
+        <v>6.59879241598253</v>
       </c>
       <c r="D11">
-        <v>0.7531238978704096</v>
+        <v>0.7531238978698411</v>
       </c>
       <c r="E11">
-        <v>1.213317977428204</v>
+        <v>1.213317977428247</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.86739196036359</v>
+        <v>17.86739196036325</v>
       </c>
       <c r="I11">
-        <v>0.443564734598489</v>
+        <v>0.4435647345985174</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.56788518172948</v>
+        <v>8.567885181728684</v>
       </c>
       <c r="C12">
-        <v>6.870679332711802</v>
+        <v>6.870679332709528</v>
       </c>
       <c r="D12">
-        <v>0.7838253130209409</v>
+        <v>0.7838253130206283</v>
       </c>
       <c r="E12">
-        <v>1.265110711134881</v>
+        <v>1.265110711134909</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18.52800967009256</v>
+        <v>18.52800967009233</v>
       </c>
       <c r="I12">
-        <v>0.4628566276488328</v>
+        <v>0.4628566276487831</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.48752644048966</v>
+        <v>8.487526440489319</v>
       </c>
       <c r="C13">
-        <v>6.811126996372082</v>
+        <v>6.811126996372764</v>
       </c>
       <c r="D13">
-        <v>0.7771008830513892</v>
+        <v>0.777100883050764</v>
       </c>
       <c r="E13">
-        <v>1.253752074777751</v>
+        <v>1.253752074777708</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18.38361484107588</v>
+        <v>18.38361484107548</v>
       </c>
       <c r="I13">
-        <v>0.4586232107777022</v>
+        <v>0.4586232107776809</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.231216061846794</v>
+        <v>8.231216061847135</v>
       </c>
       <c r="C14">
-        <v>6.620727062770698</v>
+        <v>6.620727062771039</v>
       </c>
       <c r="D14">
-        <v>0.7556008341153415</v>
+        <v>0.7556008341151994</v>
       </c>
       <c r="E14">
-        <v>1.217490235798081</v>
+        <v>1.217490235798024</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.92081836462819</v>
+        <v>17.92081836462842</v>
       </c>
       <c r="I14">
-        <v>0.4451177455847528</v>
+        <v>0.4451177455847883</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.078354043925003</v>
+        <v>8.078354043924662</v>
       </c>
       <c r="C15">
-        <v>6.506842251305557</v>
+        <v>6.506842251305443</v>
       </c>
       <c r="D15">
-        <v>0.7427404490861704</v>
+        <v>0.7427404490858862</v>
       </c>
       <c r="E15">
-        <v>1.195839437806683</v>
+        <v>1.195839437806825</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.64318049718361</v>
+        <v>17.64318049718344</v>
       </c>
       <c r="I15">
-        <v>0.4370608500305266</v>
+        <v>0.4370608500305195</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.255806566501747</v>
+        <v>7.255806566501576</v>
       </c>
       <c r="C16">
-        <v>5.889679627271448</v>
+        <v>5.889679627271562</v>
       </c>
       <c r="D16">
-        <v>0.6730457350392669</v>
+        <v>0.6730457350393237</v>
       </c>
       <c r="E16">
-        <v>1.078996529433056</v>
+        <v>1.078996529433013</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.12808587275862</v>
+        <v>16.12808587275839</v>
       </c>
       <c r="I16">
-        <v>0.3936645868028847</v>
+        <v>0.3936645868027782</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.790277678964685</v>
+        <v>6.790277678964799</v>
       </c>
       <c r="C17">
-        <v>5.537044190595793</v>
+        <v>5.537044190597499</v>
       </c>
       <c r="D17">
-        <v>0.6332258471431942</v>
+        <v>0.6332258471432795</v>
       </c>
       <c r="E17">
-        <v>1.012589809711713</v>
+        <v>1.01258980971177</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.25456574862835</v>
+        <v>15.25456574862827</v>
       </c>
       <c r="I17">
-        <v>0.3690613392582023</v>
+        <v>0.3690613392581952</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.53414491046027</v>
+        <v>6.534144910460554</v>
       </c>
       <c r="C18">
-        <v>5.341959481531944</v>
+        <v>5.341959481531831</v>
       </c>
       <c r="D18">
-        <v>0.6111988727393225</v>
+        <v>0.6111988727392372</v>
       </c>
       <c r="E18">
-        <v>0.9759590613399354</v>
+        <v>0.9759590613399638</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.76891855683834</v>
+        <v>14.76891855683843</v>
       </c>
       <c r="I18">
-        <v>0.3555077861843259</v>
+        <v>0.3555077861843472</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.449209131543398</v>
+        <v>6.449209131542943</v>
       </c>
       <c r="C19">
-        <v>5.277097673755975</v>
+        <v>5.27709767375643</v>
       </c>
       <c r="D19">
-        <v>0.6038758060680038</v>
+        <v>0.6038758060670943</v>
       </c>
       <c r="E19">
-        <v>0.9637965790102356</v>
+        <v>0.9637965790102214</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.60707506925758</v>
+        <v>14.60707506925732</v>
       </c>
       <c r="I19">
-        <v>0.3510103476268753</v>
+        <v>0.3510103476267901</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.838578035893022</v>
+        <v>6.838578035893704</v>
       </c>
       <c r="C20">
-        <v>5.57374682353327</v>
+        <v>5.573746823533952</v>
       </c>
       <c r="D20">
-        <v>0.6373701376419092</v>
+        <v>0.6373701376426197</v>
       </c>
       <c r="E20">
-        <v>1.019489816479151</v>
+        <v>1.019489816479037</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.34574376313952</v>
+        <v>15.34574376313958</v>
       </c>
       <c r="I20">
-        <v>0.371615779354407</v>
+        <v>0.3716157793543928</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.30561132402056</v>
+        <v>8.30561132402039</v>
       </c>
       <c r="C21">
-        <v>6.676062926561599</v>
+        <v>6.676062926562054</v>
       </c>
       <c r="D21">
-        <v>0.7618494964347349</v>
+        <v>0.761849496434678</v>
       </c>
       <c r="E21">
-        <v>1.228020608114903</v>
+        <v>1.228020608115017</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.05549891271858</v>
+        <v>18.05549891271784</v>
       </c>
       <c r="I21">
-        <v>0.4490382305499523</v>
+        <v>0.4490382305499097</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.442373128763165</v>
+        <v>9.442373128763506</v>
       </c>
       <c r="C22">
-        <v>7.514452186695394</v>
+        <v>7.514452186696076</v>
       </c>
       <c r="D22">
-        <v>0.85650663321411</v>
+        <v>0.8565066332132858</v>
       </c>
       <c r="E22">
-        <v>1.388430464796457</v>
+        <v>1.388430464796471</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20.07789112485796</v>
+        <v>20.07789112485813</v>
       </c>
       <c r="I22">
-        <v>0.5089131433776686</v>
+        <v>0.5089131433777041</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.814089681771861</v>
+        <v>8.81408968177152</v>
       </c>
       <c r="C23">
-        <v>7.052718905693496</v>
+        <v>7.05271890569486</v>
       </c>
       <c r="D23">
-        <v>0.8043796460398482</v>
+        <v>0.8043796460393935</v>
       </c>
       <c r="E23">
-        <v>1.299882381711001</v>
+        <v>1.299882381711086</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.9683330641966</v>
+        <v>18.96833306419677</v>
       </c>
       <c r="I23">
-        <v>0.4758251642649043</v>
+        <v>0.4758251642648617</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.816706235109052</v>
+        <v>6.816706235109166</v>
       </c>
       <c r="C24">
-        <v>5.557130149992759</v>
+        <v>5.557130149992076</v>
       </c>
       <c r="D24">
         <v>0.6354938530885761</v>
       </c>
       <c r="E24">
-        <v>1.016365589554795</v>
+        <v>1.016365589554837</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.30447150060758</v>
+        <v>15.30447150060763</v>
       </c>
       <c r="I24">
-        <v>0.370459108789376</v>
+        <v>0.3704591087893263</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.10331278551439</v>
+        <v>5.103312785513765</v>
       </c>
       <c r="C25">
         <v>4.237491514126987</v>
       </c>
       <c r="D25">
-        <v>0.4865544703816056</v>
+        <v>0.4865544703821456</v>
       </c>
       <c r="E25">
-        <v>0.7699395780465892</v>
+        <v>0.7699395780465466</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.98779661024474</v>
+        <v>11.98779661024452</v>
       </c>
       <c r="I25">
         <v>0.2794995151473927</v>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.033582049584766</v>
+        <v>4.033582049584709</v>
       </c>
       <c r="C2">
-        <v>3.394112475171539</v>
+        <v>3.394112475171084</v>
       </c>
       <c r="D2">
-        <v>0.3915059846985969</v>
+        <v>0.3915059846989379</v>
       </c>
       <c r="E2">
-        <v>0.6141009277473231</v>
+        <v>0.6141009277473444</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.828146412388634</v>
+        <v>9.828146412388577</v>
       </c>
       <c r="I2">
-        <v>0.222226986421532</v>
+        <v>0.2222269864215036</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,13 +453,13 @@
         <v>3.379138866540302</v>
       </c>
       <c r="C3">
-        <v>2.869751546503096</v>
+        <v>2.869751546503608</v>
       </c>
       <c r="D3">
-        <v>0.332511238253673</v>
+        <v>0.3325112382537867</v>
       </c>
       <c r="E3">
-        <v>0.5178253639622667</v>
+        <v>0.5178253639622099</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.469321842067359</v>
+        <v>8.469321842067444</v>
       </c>
       <c r="I3">
-        <v>0.1869257353388356</v>
+        <v>0.1869257353389173</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.001613300189263</v>
+        <v>3.001613300189035</v>
       </c>
       <c r="C4">
         <v>2.564030505229539</v>
       </c>
       <c r="D4">
-        <v>0.2981667368898258</v>
+        <v>0.2981667368897263</v>
       </c>
       <c r="E4">
-        <v>0.4619069487301459</v>
+        <v>0.4619069487300962</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.671083778538531</v>
+        <v>7.671083778538389</v>
       </c>
       <c r="I4">
-        <v>0.1664463244309644</v>
+        <v>0.1664463244309076</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.852681559537473</v>
+        <v>2.852681559537302</v>
       </c>
       <c r="C5">
-        <v>2.442720613453389</v>
+        <v>2.44272061345373</v>
       </c>
       <c r="D5">
-        <v>0.284551986968566</v>
+        <v>0.284551986968907</v>
       </c>
       <c r="E5">
-        <v>0.4397620161840408</v>
+        <v>0.439762016184055</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.353057117892831</v>
+        <v>7.353057117893002</v>
       </c>
       <c r="I5">
-        <v>0.1583402906230233</v>
+        <v>0.1583402906230447</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.828217941965647</v>
+        <v>2.828217941965477</v>
       </c>
       <c r="C6">
-        <v>2.422754382966559</v>
+        <v>2.422754382966446</v>
       </c>
       <c r="D6">
-        <v>0.2823119509126002</v>
+        <v>0.282311950912657</v>
       </c>
       <c r="E6">
-        <v>0.4361195792570811</v>
+        <v>0.4361195792571593</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.300641322467328</v>
+        <v>7.30064132246747</v>
       </c>
       <c r="I6">
-        <v>0.1570072087470393</v>
+        <v>0.157007208746986</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,13 +605,13 @@
         <v>2.999586263523838</v>
       </c>
       <c r="C7">
-        <v>2.562382170264982</v>
+        <v>2.562382170265437</v>
       </c>
       <c r="D7">
-        <v>0.297981688541185</v>
+        <v>0.2979816885415261</v>
       </c>
       <c r="E7">
-        <v>0.4616058822631786</v>
+        <v>0.4616058822629796</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.66676749234108</v>
+        <v>7.666767492340881</v>
       </c>
       <c r="I7">
-        <v>0.1663361053312578</v>
+        <v>0.1663361053312435</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.802075649140022</v>
+        <v>3.80207564913951</v>
       </c>
       <c r="C8">
-        <v>3.209396809265399</v>
+        <v>3.20939680926449</v>
       </c>
       <c r="D8">
-        <v>0.3707130862386521</v>
+        <v>0.3707130862384105</v>
       </c>
       <c r="E8">
-        <v>0.5801330380412963</v>
+        <v>0.5801330380414385</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.350918318750189</v>
+        <v>9.350918318750416</v>
       </c>
       <c r="I8">
-        <v>0.2097655535326197</v>
+        <v>0.2097655535325487</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.642018582193543</v>
+        <v>5.642018582192975</v>
       </c>
       <c r="C9">
-        <v>4.656331942861584</v>
+        <v>4.656331942860788</v>
       </c>
       <c r="D9">
-        <v>0.5338066147027973</v>
+        <v>0.5338066147032237</v>
       </c>
       <c r="E9">
-        <v>0.8478006665230851</v>
+        <v>0.8478006665230566</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13.04875077189152</v>
+        <v>13.04875077189146</v>
       </c>
       <c r="I9">
-        <v>0.3081833111686052</v>
+        <v>0.3081833111685199</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.310681740056509</v>
+        <v>7.310681740056282</v>
       </c>
       <c r="C10">
-        <v>5.931085385268375</v>
+        <v>5.931085385269398</v>
       </c>
       <c r="D10">
-        <v>0.6777215241066301</v>
+        <v>0.6777215241067154</v>
       </c>
       <c r="E10">
-        <v>1.086810487450578</v>
+        <v>1.086810487450606</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16.23028332396194</v>
+        <v>16.23028332396171</v>
       </c>
       <c r="I10">
-        <v>0.3965624269948975</v>
+        <v>0.3965624269948052</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.201748262644628</v>
+        <v>8.201748262644685</v>
       </c>
       <c r="C11">
-        <v>6.59879241598253</v>
+        <v>6.598792415983212</v>
       </c>
       <c r="D11">
-        <v>0.7531238978698411</v>
+        <v>0.7531238978704096</v>
       </c>
       <c r="E11">
-        <v>1.213317977428247</v>
+        <v>1.213317977428204</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17.86739196036325</v>
+        <v>17.86739196036359</v>
       </c>
       <c r="I11">
-        <v>0.4435647345985174</v>
+        <v>0.443564734598489</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.567885181728684</v>
+        <v>8.56788518172948</v>
       </c>
       <c r="C12">
-        <v>6.870679332709528</v>
+        <v>6.870679332711802</v>
       </c>
       <c r="D12">
-        <v>0.7838253130206283</v>
+        <v>0.7838253130209409</v>
       </c>
       <c r="E12">
-        <v>1.265110711134909</v>
+        <v>1.265110711134881</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18.52800967009233</v>
+        <v>18.52800967009256</v>
       </c>
       <c r="I12">
-        <v>0.4628566276487831</v>
+        <v>0.4628566276488328</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.487526440489319</v>
+        <v>8.48752644048966</v>
       </c>
       <c r="C13">
-        <v>6.811126996372764</v>
+        <v>6.811126996372082</v>
       </c>
       <c r="D13">
-        <v>0.777100883050764</v>
+        <v>0.7771008830513892</v>
       </c>
       <c r="E13">
-        <v>1.253752074777708</v>
+        <v>1.253752074777751</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18.38361484107548</v>
+        <v>18.38361484107588</v>
       </c>
       <c r="I13">
-        <v>0.4586232107776809</v>
+        <v>0.4586232107777022</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.231216061847135</v>
+        <v>8.231216061846794</v>
       </c>
       <c r="C14">
-        <v>6.620727062771039</v>
+        <v>6.620727062770698</v>
       </c>
       <c r="D14">
-        <v>0.7556008341151994</v>
+        <v>0.7556008341153415</v>
       </c>
       <c r="E14">
-        <v>1.217490235798024</v>
+        <v>1.217490235798081</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17.92081836462842</v>
+        <v>17.92081836462819</v>
       </c>
       <c r="I14">
-        <v>0.4451177455847883</v>
+        <v>0.4451177455847528</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.078354043924662</v>
+        <v>8.078354043925003</v>
       </c>
       <c r="C15">
-        <v>6.506842251305443</v>
+        <v>6.506842251305557</v>
       </c>
       <c r="D15">
-        <v>0.7427404490858862</v>
+        <v>0.7427404490861704</v>
       </c>
       <c r="E15">
-        <v>1.195839437806825</v>
+        <v>1.195839437806683</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17.64318049718344</v>
+        <v>17.64318049718361</v>
       </c>
       <c r="I15">
-        <v>0.4370608500305195</v>
+        <v>0.4370608500305266</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.255806566501576</v>
+        <v>7.255806566501747</v>
       </c>
       <c r="C16">
-        <v>5.889679627271562</v>
+        <v>5.889679627271448</v>
       </c>
       <c r="D16">
-        <v>0.6730457350393237</v>
+        <v>0.6730457350392669</v>
       </c>
       <c r="E16">
-        <v>1.078996529433013</v>
+        <v>1.078996529433056</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16.12808587275839</v>
+        <v>16.12808587275862</v>
       </c>
       <c r="I16">
-        <v>0.3936645868027782</v>
+        <v>0.3936645868028847</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.790277678964799</v>
+        <v>6.790277678964685</v>
       </c>
       <c r="C17">
-        <v>5.537044190597499</v>
+        <v>5.537044190595793</v>
       </c>
       <c r="D17">
-        <v>0.6332258471432795</v>
+        <v>0.6332258471431942</v>
       </c>
       <c r="E17">
-        <v>1.01258980971177</v>
+        <v>1.012589809711713</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15.25456574862827</v>
+        <v>15.25456574862835</v>
       </c>
       <c r="I17">
-        <v>0.3690613392581952</v>
+        <v>0.3690613392582023</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.534144910460554</v>
+        <v>6.53414491046027</v>
       </c>
       <c r="C18">
-        <v>5.341959481531831</v>
+        <v>5.341959481531944</v>
       </c>
       <c r="D18">
-        <v>0.6111988727392372</v>
+        <v>0.6111988727393225</v>
       </c>
       <c r="E18">
-        <v>0.9759590613399638</v>
+        <v>0.9759590613399354</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.76891855683843</v>
+        <v>14.76891855683834</v>
       </c>
       <c r="I18">
-        <v>0.3555077861843472</v>
+        <v>0.3555077861843259</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.449209131542943</v>
+        <v>6.449209131543398</v>
       </c>
       <c r="C19">
-        <v>5.27709767375643</v>
+        <v>5.277097673755975</v>
       </c>
       <c r="D19">
-        <v>0.6038758060670943</v>
+        <v>0.6038758060680038</v>
       </c>
       <c r="E19">
-        <v>0.9637965790102214</v>
+        <v>0.9637965790102356</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14.60707506925732</v>
+        <v>14.60707506925758</v>
       </c>
       <c r="I19">
-        <v>0.3510103476267901</v>
+        <v>0.3510103476268753</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.838578035893704</v>
+        <v>6.838578035893022</v>
       </c>
       <c r="C20">
-        <v>5.573746823533952</v>
+        <v>5.57374682353327</v>
       </c>
       <c r="D20">
-        <v>0.6373701376426197</v>
+        <v>0.6373701376419092</v>
       </c>
       <c r="E20">
-        <v>1.019489816479037</v>
+        <v>1.019489816479151</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15.34574376313958</v>
+        <v>15.34574376313952</v>
       </c>
       <c r="I20">
-        <v>0.3716157793543928</v>
+        <v>0.371615779354407</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.30561132402039</v>
+        <v>8.30561132402056</v>
       </c>
       <c r="C21">
-        <v>6.676062926562054</v>
+        <v>6.676062926561599</v>
       </c>
       <c r="D21">
-        <v>0.761849496434678</v>
+        <v>0.7618494964347349</v>
       </c>
       <c r="E21">
-        <v>1.228020608115017</v>
+        <v>1.228020608114903</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18.05549891271784</v>
+        <v>18.05549891271858</v>
       </c>
       <c r="I21">
-        <v>0.4490382305499097</v>
+        <v>0.4490382305499523</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.442373128763506</v>
+        <v>9.442373128763165</v>
       </c>
       <c r="C22">
-        <v>7.514452186696076</v>
+        <v>7.514452186695394</v>
       </c>
       <c r="D22">
-        <v>0.8565066332132858</v>
+        <v>0.85650663321411</v>
       </c>
       <c r="E22">
-        <v>1.388430464796471</v>
+        <v>1.388430464796457</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20.07789112485813</v>
+        <v>20.07789112485796</v>
       </c>
       <c r="I22">
-        <v>0.5089131433777041</v>
+        <v>0.5089131433776686</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.81408968177152</v>
+        <v>8.814089681771861</v>
       </c>
       <c r="C23">
-        <v>7.05271890569486</v>
+        <v>7.052718905693496</v>
       </c>
       <c r="D23">
-        <v>0.8043796460393935</v>
+        <v>0.8043796460398482</v>
       </c>
       <c r="E23">
-        <v>1.299882381711086</v>
+        <v>1.299882381711001</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18.96833306419677</v>
+        <v>18.9683330641966</v>
       </c>
       <c r="I23">
-        <v>0.4758251642648617</v>
+        <v>0.4758251642649043</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.816706235109166</v>
+        <v>6.816706235109052</v>
       </c>
       <c r="C24">
-        <v>5.557130149992076</v>
+        <v>5.557130149992759</v>
       </c>
       <c r="D24">
         <v>0.6354938530885761</v>
       </c>
       <c r="E24">
-        <v>1.016365589554837</v>
+        <v>1.016365589554795</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15.30447150060763</v>
+        <v>15.30447150060758</v>
       </c>
       <c r="I24">
-        <v>0.3704591087893263</v>
+        <v>0.370459108789376</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.103312785513765</v>
+        <v>5.10331278551439</v>
       </c>
       <c r="C25">
         <v>4.237491514126987</v>
       </c>
       <c r="D25">
-        <v>0.4865544703821456</v>
+        <v>0.4865544703816056</v>
       </c>
       <c r="E25">
-        <v>0.7699395780465466</v>
+        <v>0.7699395780465892</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.98779661024452</v>
+        <v>11.98779661024474</v>
       </c>
       <c r="I25">
         <v>0.2794995151473927</v>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,37 +406,40 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.033582049584709</v>
+        <v>3.973687120719319</v>
       </c>
       <c r="C2">
-        <v>3.394112475171084</v>
+        <v>3.358447700172007</v>
       </c>
       <c r="D2">
-        <v>0.3915059846989379</v>
+        <v>0.388640318003695</v>
       </c>
       <c r="E2">
-        <v>0.6141009277473444</v>
+        <v>0.6092875430623153</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007381689503995759</v>
       </c>
       <c r="H2">
-        <v>9.828146412388577</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2222269864215036</v>
+        <v>9.816990125200277</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2204450703761935</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,37 +447,40 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.379138866540302</v>
+        <v>3.3315787284414</v>
       </c>
       <c r="C3">
-        <v>2.869751546503608</v>
+        <v>2.842450026737652</v>
       </c>
       <c r="D3">
-        <v>0.3325112382537867</v>
+        <v>0.3302130231423206</v>
       </c>
       <c r="E3">
-        <v>0.5178253639622099</v>
+        <v>0.5139580521365161</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000757740093958975</v>
       </c>
       <c r="H3">
-        <v>8.469321842067444</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1869257353389173</v>
+        <v>8.470193369351563</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1854945575792009</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,37 +488,40 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.001613300189035</v>
+        <v>2.961204723010269</v>
       </c>
       <c r="C4">
-        <v>2.564030505229539</v>
+        <v>2.541561367391125</v>
       </c>
       <c r="D4">
-        <v>0.2981667368897263</v>
+        <v>0.2961820015085266</v>
       </c>
       <c r="E4">
-        <v>0.4619069487300962</v>
+        <v>0.4585577188632755</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007697062303174681</v>
       </c>
       <c r="H4">
-        <v>7.671083778538389</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1664463244309076</v>
+        <v>7.678647258562876</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1652064630959948</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,37 +529,40 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.852681559537302</v>
+        <v>2.815114071910386</v>
       </c>
       <c r="C5">
-        <v>2.44272061345373</v>
+        <v>2.422166891039353</v>
       </c>
       <c r="D5">
-        <v>0.284551986968907</v>
+        <v>0.2826884041221405</v>
       </c>
       <c r="E5">
-        <v>0.439762016184055</v>
+        <v>0.4366121003044725</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007745879083837217</v>
       </c>
       <c r="H5">
-        <v>7.353057117893002</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1583402906230447</v>
+        <v>7.363216251726897</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1571738808286867</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,37 +570,40 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.828217941965477</v>
+        <v>2.79111858393145</v>
       </c>
       <c r="C6">
-        <v>2.422754382966446</v>
+        <v>2.402516001234005</v>
       </c>
       <c r="D6">
-        <v>0.282311950912657</v>
+        <v>0.2804681396618776</v>
       </c>
       <c r="E6">
-        <v>0.4361195792571593</v>
+        <v>0.4330021411730769</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007753992939817075</v>
       </c>
       <c r="H6">
-        <v>7.30064132246747</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.157007208746986</v>
+        <v>7.311224563285748</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1558527595508146</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,37 +611,40 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.999586263523838</v>
+        <v>2.959216261955021</v>
       </c>
       <c r="C7">
-        <v>2.562382170265437</v>
+        <v>2.539939057291406</v>
       </c>
       <c r="D7">
-        <v>0.2979816885415261</v>
+        <v>0.2959986113167901</v>
       </c>
       <c r="E7">
-        <v>0.4616058822629796</v>
+        <v>0.4582593838000406</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007697720232010319</v>
       </c>
       <c r="H7">
-        <v>7.666767492340881</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1663361053312435</v>
+        <v>7.674366462049818</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1650972511558351</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,37 +652,40 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.80207564913951</v>
+        <v>3.746544465930469</v>
       </c>
       <c r="C8">
-        <v>3.20939680926449</v>
+        <v>3.176694141068026</v>
       </c>
       <c r="D8">
-        <v>0.3707130862384105</v>
+        <v>0.3680518738661362</v>
       </c>
       <c r="E8">
-        <v>0.5801330380414385</v>
+        <v>0.5756617140507316</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007449397613281572</v>
       </c>
       <c r="H8">
-        <v>9.350918318750416</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2097655535325487</v>
+        <v>9.344083211280406</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2081106468086311</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,37 +693,40 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.642018582192975</v>
+        <v>5.551140870758786</v>
       </c>
       <c r="C9">
-        <v>4.656331942860788</v>
+        <v>4.599580831400544</v>
       </c>
       <c r="D9">
-        <v>0.5338066147032237</v>
+        <v>0.5293857946242611</v>
       </c>
       <c r="E9">
-        <v>0.8478006665230566</v>
+        <v>0.8403453320545964</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006947480001657635</v>
       </c>
       <c r="H9">
-        <v>13.04875077189146</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3081833111685199</v>
+        <v>13.0051643419645</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3054137199075626</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,37 +734,40 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.310681740056282</v>
+        <v>7.18473831008788</v>
       </c>
       <c r="C10">
-        <v>5.931085385269398</v>
+        <v>5.850471116239532</v>
       </c>
       <c r="D10">
-        <v>0.6777215241067154</v>
+        <v>0.6713592544035123</v>
       </c>
       <c r="E10">
-        <v>1.086810487450606</v>
+        <v>1.0759706944215</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006546969040220338</v>
       </c>
       <c r="H10">
-        <v>16.23028332396171</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3965624269948052</v>
+        <v>16.14721116651867</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3925131535051989</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,37 +775,40 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.201748262644685</v>
+        <v>8.054949758632233</v>
       </c>
       <c r="C11">
-        <v>6.598792415983212</v>
+        <v>6.504029508133272</v>
       </c>
       <c r="D11">
-        <v>0.7531238978704096</v>
+        <v>0.7455353036948509</v>
       </c>
       <c r="E11">
-        <v>1.213317977428204</v>
+        <v>1.200299146772139</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006348828154306437</v>
       </c>
       <c r="H11">
-        <v>17.86739196036359</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.443564734598489</v>
+        <v>17.75988273661318</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4386847168580701</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,37 +816,40 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.56788518172948</v>
+        <v>8.411928249109963</v>
       </c>
       <c r="C12">
-        <v>6.870679332711802</v>
+        <v>6.769716870425782</v>
       </c>
       <c r="D12">
-        <v>0.7838253130209409</v>
+        <v>0.7756842058709594</v>
       </c>
       <c r="E12">
-        <v>1.265110711134881</v>
+        <v>1.251101065696687</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000627013736986633</v>
       </c>
       <c r="H12">
-        <v>18.52800967009256</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4628566276488328</v>
+        <v>18.4096041009181</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4575973763101757</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,37 +857,40 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.48752644048966</v>
+        <v>8.333612791703217</v>
       </c>
       <c r="C13">
-        <v>6.811126996372082</v>
+        <v>6.711546916445627</v>
       </c>
       <c r="D13">
-        <v>0.7771008830513892</v>
+        <v>0.7690837244102795</v>
       </c>
       <c r="E13">
-        <v>1.253752074777751</v>
+        <v>1.239965165092272</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006287279173867402</v>
       </c>
       <c r="H13">
-        <v>18.38361484107588</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4586232107777022</v>
+        <v>18.26764790100481</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4534492868103399</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,37 +898,40 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.231216061846794</v>
+        <v>8.083694425501108</v>
       </c>
       <c r="C14">
-        <v>6.620727062770698</v>
+        <v>6.525474331471401</v>
       </c>
       <c r="D14">
-        <v>0.7556008341153415</v>
+        <v>0.7479689054814855</v>
       </c>
       <c r="E14">
-        <v>1.217490235798081</v>
+        <v>1.204393887963846</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006342438540624252</v>
       </c>
       <c r="H14">
-        <v>17.92081836462819</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4451177455847528</v>
+        <v>17.81245207769467</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4402080899536784</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,37 +939,40 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.078354043925003</v>
+        <v>7.934558403692904</v>
       </c>
       <c r="C15">
-        <v>6.506842251305557</v>
+        <v>6.414113947638725</v>
       </c>
       <c r="D15">
-        <v>0.7427404490861704</v>
+        <v>0.7353312518104644</v>
       </c>
       <c r="E15">
-        <v>1.195839437806683</v>
+        <v>1.183141153536837</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006375693553323379</v>
       </c>
       <c r="H15">
-        <v>17.64318049718361</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4370608500305266</v>
+        <v>17.53922389916852</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4323033307827586</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,37 +980,40 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.255806566501747</v>
+        <v>7.131089875889813</v>
       </c>
       <c r="C16">
-        <v>5.889679627271448</v>
+        <v>5.809898857804342</v>
       </c>
       <c r="D16">
-        <v>0.6730457350392669</v>
+        <v>0.6667540936541911</v>
       </c>
       <c r="E16">
-        <v>1.078996529433056</v>
+        <v>1.068281330377374</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006559497945945085</v>
       </c>
       <c r="H16">
-        <v>16.12808587275862</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3936645868028847</v>
+        <v>16.04643236520479</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3896626658675615</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,37 +1021,40 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.790277678964685</v>
+        <v>6.675738655227292</v>
       </c>
       <c r="C17">
-        <v>5.537044190595793</v>
+        <v>5.464183162741392</v>
       </c>
       <c r="D17">
-        <v>0.6332258471431942</v>
+        <v>0.6275131016991224</v>
       </c>
       <c r="E17">
-        <v>1.012589809711713</v>
+        <v>1.002891848821889</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006667424415263939</v>
       </c>
       <c r="H17">
-        <v>15.25456574862835</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3690613392582023</v>
+        <v>15.18458884856472</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3654453718533048</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,37 +1062,40 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.53414491046027</v>
+        <v>6.425045727607767</v>
       </c>
       <c r="C18">
-        <v>5.341959481531944</v>
+        <v>5.272799943023529</v>
       </c>
       <c r="D18">
-        <v>0.6111988727393225</v>
+        <v>0.6057901106519523</v>
       </c>
       <c r="E18">
-        <v>0.9759590613399354</v>
+        <v>0.9667923163362246</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.000672811106437273</v>
       </c>
       <c r="H18">
-        <v>14.76891855683834</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3555077861843259</v>
+        <v>14.70510897927591</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3520928856845771</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,37 +1103,40 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.449209131543398</v>
+        <v>6.341891131788145</v>
       </c>
       <c r="C19">
-        <v>5.277097673755975</v>
+        <v>5.209150503217529</v>
       </c>
       <c r="D19">
-        <v>0.6038758060680038</v>
+        <v>0.5985657153678687</v>
       </c>
       <c r="E19">
-        <v>0.9637965790102356</v>
+        <v>0.9548018115834935</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006748449747423069</v>
       </c>
       <c r="H19">
-        <v>14.60707506925758</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3510103476268753</v>
+        <v>14.54527282535722</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3476604667805958</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,37 +1144,40 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.838578035893022</v>
+        <v>6.723001099841895</v>
       </c>
       <c r="C20">
-        <v>5.57374682353327</v>
+        <v>5.500179774584467</v>
       </c>
       <c r="D20">
-        <v>0.6373701376419092</v>
+        <v>0.631598951972336</v>
       </c>
       <c r="E20">
-        <v>1.019489816479151</v>
+        <v>1.009689493385011</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006656086764574769</v>
       </c>
       <c r="H20">
-        <v>15.34574376313952</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.371615779354407</v>
+        <v>15.27458407707377</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3679610284847712</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,37 +1185,40 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.30561132402056</v>
+        <v>8.156253471720106</v>
       </c>
       <c r="C21">
-        <v>6.676062926561599</v>
+        <v>6.579566652736389</v>
       </c>
       <c r="D21">
-        <v>0.7618494964347349</v>
+        <v>0.7541073021790794</v>
       </c>
       <c r="E21">
-        <v>1.228020608114903</v>
+        <v>1.214726864777674</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006326351504680961</v>
       </c>
       <c r="H21">
-        <v>18.05549891271858</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4490382305499523</v>
+        <v>17.94495370917537</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4440530780253766</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,37 +1226,40 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.442373128763165</v>
+        <v>9.262800213581045</v>
       </c>
       <c r="C22">
-        <v>7.514452186695394</v>
+        <v>7.397544786386902</v>
       </c>
       <c r="D22">
-        <v>0.85650663321411</v>
+        <v>0.8469071551206468</v>
       </c>
       <c r="E22">
-        <v>1.388430464796457</v>
+        <v>1.37178152934581</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006088066867860218</v>
       </c>
       <c r="H22">
-        <v>20.07789112485796</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5089131433776686</v>
+        <v>19.93102873924437</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.502639757164566</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,37 +1267,40 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.814089681771861</v>
+        <v>8.651748422428568</v>
       </c>
       <c r="C23">
-        <v>7.052718905693496</v>
+        <v>6.947439997508127</v>
       </c>
       <c r="D23">
-        <v>0.8043796460398482</v>
+        <v>0.7958488501372472</v>
       </c>
       <c r="E23">
-        <v>1.299882381711001</v>
+        <v>1.285170788908545</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006218058755989569</v>
       </c>
       <c r="H23">
-        <v>18.9683330641966</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4758251642649043</v>
+        <v>18.84228176759137</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.470296730741957</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,37 +1308,40 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.816706235109052</v>
+        <v>6.701599787486487</v>
       </c>
       <c r="C24">
-        <v>5.557130149992759</v>
+        <v>5.483883133174913</v>
       </c>
       <c r="D24">
-        <v>0.6354938530885761</v>
+        <v>0.6297491757360092</v>
       </c>
       <c r="E24">
-        <v>1.016365589554795</v>
+        <v>1.006611707011658</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006661216666060662</v>
       </c>
       <c r="H24">
-        <v>15.30447150060758</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.370459108789376</v>
+        <v>15.23384820924224</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3668219550691134</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,42 +1349,48 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.10331278551439</v>
+        <v>5.023008569865397</v>
       </c>
       <c r="C25">
-        <v>4.237491514126987</v>
+        <v>4.18794253183205</v>
       </c>
       <c r="D25">
-        <v>0.4865544703816056</v>
+        <v>0.4826834258339545</v>
       </c>
       <c r="E25">
-        <v>0.7699395780465892</v>
+        <v>0.763425934718299</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.000708670539957198</v>
       </c>
       <c r="H25">
-        <v>11.98779661024474</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2794995151473927</v>
+        <v>11.95558858240744</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2770832459680932</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,37 +409,43 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.973687120719319</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.358447700172007</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.388640318003695</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6092875430623153</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007381689503995759</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.816990125200277</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2204450703761935</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +456,43 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.3315787284414</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.842450026737652</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3302130231423206</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5139580521365161</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000757740093958975</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.470193369351563</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1854945575792009</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,37 +503,43 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.961204723010269</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.541561367391125</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2961820015085266</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4585577188632755</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007697062303174681</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.678647258562876</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1652064630959948</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -532,37 +550,43 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.815114071910386</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.422166891039353</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2826884041221405</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4366121003044725</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007745879083837217</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.363216251726897</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1571738808286867</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -573,37 +597,43 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.79111858393145</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.402516001234005</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2804681396618776</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4330021411730769</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007753992939817075</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.311224563285748</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1558527595508146</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -614,37 +644,43 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.959216261955021</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.539939057291406</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2959986113167901</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4582593838000406</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007697720232010319</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.674366462049818</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1650972511558351</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -655,37 +691,43 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.746544465930469</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>3.176694141068026</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3680518738661362</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5756617140507316</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007449397613281572</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.344083211280406</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2081106468086311</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -696,37 +738,43 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.551140870758786</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.599580831400544</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5293857946242611</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8403453320545964</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006947480001657635</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.0051643419645</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3054137199075626</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -737,37 +785,43 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.18473831008788</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.850471116239532</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6713592544035123</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.0759706944215</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006546969040220338</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.14721116651867</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3925131535051989</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -778,37 +832,43 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.054949758632233</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6.504029508133272</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7455353036948509</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.200299146772139</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006348828154306437</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.75988273661318</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4386847168580701</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -819,37 +879,43 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.411928249109963</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6.769716870425782</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7756842058709594</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.251101065696687</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000627013736986633</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.4096041009181</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4575973763101757</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -860,37 +926,43 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.333612791703217</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6.711546916445627</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7690837244102795</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.239965165092272</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006287279173867402</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.26764790100481</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4534492868103399</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -901,37 +973,43 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.083694425501108</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6.525474331471401</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7479689054814855</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1.204393887963846</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006342438540624252</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.81245207769467</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4402080899536784</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -942,37 +1020,43 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.934558403692904</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>6.414113947638725</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7353312518104644</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1.183141153536837</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006375693553323379</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.53922389916852</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4323033307827586</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -983,37 +1067,43 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.131089875889813</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>5.809898857804342</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6667540936541911</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1.068281330377374</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006559497945945085</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.04643236520479</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3896626658675615</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1024,37 +1114,43 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.675738655227292</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.464183162741392</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6275131016991224</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1.002891848821889</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006667424415263939</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.18458884856472</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3654453718533048</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1065,37 +1161,43 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.425045727607767</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5.272799943023529</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6057901106519523</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.9667923163362246</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000672811106437273</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.70510897927591</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3520928856845771</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1106,37 +1208,43 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.341891131788145</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>5.209150503217529</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5985657153678687</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.9548018115834935</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006748449747423069</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.54527282535722</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3476604667805958</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1147,37 +1255,43 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.723001099841895</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>5.500179774584467</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.631598951972336</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1.009689493385011</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006656086764574769</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.27458407707377</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3679610284847712</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1188,37 +1302,43 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.156253471720106</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>6.579566652736389</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7541073021790794</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1.214726864777674</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006326351504680961</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.94495370917537</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4440530780253766</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1229,37 +1349,43 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.262800213581045</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>7.397544786386902</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8469071551206468</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.37178152934581</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006088066867860218</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.93102873924437</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.502639757164566</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1270,37 +1396,43 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.651748422428568</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>6.947439997508127</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7958488501372472</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1.285170788908545</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006218058755989569</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.84228176759137</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.470296730741957</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1311,37 +1443,43 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.701599787486487</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5.483883133174913</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6297491757360092</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1.006611707011658</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006661216666060662</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.23384820924224</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3668219550691134</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1352,37 +1490,43 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.023008569865397</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>4.18794253183205</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4826834258339545</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.763425934718299</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000708670539957198</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.95558858240744</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2770832459680932</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.461639943603018</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.08428034681559637</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2557894647596299</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0571524135414947</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.875539076097255</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.213357439728355</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02420908284451162</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.197462982994836</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2140517721574184</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3131647543085592</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.271973175600934</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.307174995503829</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.07522581077110857</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2413997069272398</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.05646488470289235</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.814544085355891</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.193579702287323</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02373036781973692</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.055370295738442</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2009338917469421</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2840305423407941</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.310642656935926</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.21399190404648</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.06968663122509611</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.2328687280436981</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.05609306102281586</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.779626302355794</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.182850548445813</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02343561697208862</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.9694102565568699</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1931334438061967</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2665116693629344</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.336308955324753</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.17640191419585</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.06743257668136238</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2294647284020783</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0559538289478958</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.766000383552353</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.178818732995936</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02331518878342109</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.9346731676659772</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1900149922583338</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2594587387327785</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.347237909983917</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.170182286925353</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.06705843283825175</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2289037570866554</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.05593144155198537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.763773306127888</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.178169383921173</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02329516970774748</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.9289218886569586</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1895007170920664</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2582926174560995</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2.349080637130356</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.213483445849448</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.069656221708982</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2328225324309301</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.05609113399812493</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.779440138464068</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.182794815190789</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02343399424904558</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.9689406358867814</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1930911477103336</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2664162109307817</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.336454462750126</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.408014752632795</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.08115292969502974</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2507621517436434</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05690468249622604</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.853961251074566</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.206235002490473</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02404412350302465</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.148183383120227</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2094737896504455</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3030383246283286</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.284898667865775</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.804330325770593</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.103953138035294</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2885566002403408</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.05891709810391355</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.021836881264733</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.264167718421675</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02523946348904538</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.511389474402591</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2437898042622919</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3781195233901542</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2.199727042398649</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2.107091503436152</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.1210030589169833</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3182199404133996</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.06067669046269764</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.160902628996212</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.315149251973565</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02612519786984357</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.787670119858831</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2706008211280135</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4357758163432806</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.147871050056537</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.247962593424575</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1288596639628565</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3321996908877765</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.06154474326527826</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.228188130696822</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.340445372591944</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0265318092488922</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.915966751351874</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2832095999886377</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4626697569266298</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2.126856432842473</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.301815264492234</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1318524526228373</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3375699788059592</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.06188376815638641</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.254301556668423</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.35035224269626</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02668650069591294</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.964976452627127</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2880493776994797</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.472960715574601</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2.11929213594658</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.290193598579492</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1312070619722761</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3364098791316081</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06181028448624026</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.248648437310862</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.348203617032937</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02665315008204416</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.954401511927102</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2870040510713068</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.4707394362832247</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2.12090334911683</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.252382569355404</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.1291055089852335</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3326399353976655</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.06157242480946756</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.230323459705403</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.341253695079644</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02654452031041821</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.919989954548299</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2836064313858913</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.4635141927652597</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.126226086794418</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.229290101283596</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.1278206479548203</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3303408994227368</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.06142809024074225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.219183156366256</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.337040140453155</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02647808061216139</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.898969008777357</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2815339516171633</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.4591027773449241</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>2.129538386790784</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.097953160064321</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.120491901135992</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3173166573315314</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.0606213708906278</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.156590941512746</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.313540535967803</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.0260987145509457</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.779342470305863</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2697855900646005</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.4340325552814619</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.149298153812623</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.018225496639332</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1160238827274327</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3094556430811508</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.06014419443119046</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.119260992156143</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.299680466626143</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02586705676476697</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.706659787474365</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2626879321915965</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.4188308815939905</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>2.162095474475223</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.972660511132688</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.1134632474862514</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3049794881192582</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.05987606023477987</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.098164939245123</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.29190495673285</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02573414808830776</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.665097502439522</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2586439783053862</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.4101492310674857</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.169697007159229</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.957281565036681</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1125977564297358</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3034715258450831</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.05978634376858771</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.091085007218737</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.289305310616271</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02568919960977922</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.651065475119339</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2572811966899877</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4072200920749083</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2.172311449856011</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.026682006443593</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.1164985312318265</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3102877278076761</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.06019433194182433</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.123195618430515</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.30113538929362</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0258916811947234</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.714371495528525</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2634394720119673</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.420442637081841</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.160708089305388</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.263474332426881</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.1297222795238042</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3337451285815973</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.06164200513024021</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.235688281227851</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.343285947592108</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02657640647985815</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.93008546123005</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2846025786988946</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4656334300532876</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.124651794764929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.421221566538293</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.1384694401493789</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.3495250609580296</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.06264856252714601</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.312932810562501</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.37275772693269</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02702819133161505</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.073580128667174</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2988164723759326</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4957966543411345</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.103392844471571</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.336735547503508</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.1337901931041756</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3410595762034916</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.0621056066407526</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.271345586438912</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.356843102280806</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02678660716753001</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.996746458682736</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2911931819531901</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4796365498911541</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.114519897385833</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2.022857976825264</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.1162839176892732</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3099114080912244</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.06017164550283916</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.121415639767179</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.300477020012551</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02588054764891545</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.71088433850008</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2630995873410313</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4197137826111756</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2.161334567294915</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.695277604579985</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.09774373657020874</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2780225355434993</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.05832539573644979</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.973851430171351</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.24710391606655</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02491541015715093</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.411653174445036</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2342459936640893</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3574089356455943</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.220964029962744</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.461639943603018</v>
+        <v>1.766253692609723</v>
       </c>
       <c r="C2">
-        <v>0.08428034681559637</v>
+        <v>0.03487257306364455</v>
       </c>
       <c r="D2">
-        <v>0.2557894647596299</v>
+        <v>0.4923411594385243</v>
       </c>
       <c r="E2">
-        <v>0.0571524135414947</v>
+        <v>0.1466535952816503</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.875539076097255</v>
+        <v>3.211953454185817</v>
       </c>
       <c r="H2">
-        <v>1.213357439728355</v>
+        <v>2.483316680697243</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02420908284451162</v>
+        <v>0.0487080606150796</v>
       </c>
       <c r="K2">
-        <v>1.197462982994836</v>
+        <v>1.129349248461011</v>
       </c>
       <c r="L2">
-        <v>0.2140517721574184</v>
+        <v>0.4266135680399188</v>
       </c>
       <c r="M2">
-        <v>0.3131647543085592</v>
+        <v>0.4551536631419779</v>
       </c>
       <c r="N2">
-        <v>2.271973175600934</v>
+        <v>4.266766516072522</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.307174995503829</v>
+        <v>1.736537289183218</v>
       </c>
       <c r="C3">
-        <v>0.07522581077110857</v>
+        <v>0.03203795572482449</v>
       </c>
       <c r="D3">
-        <v>0.2413997069272398</v>
+        <v>0.4911562912160434</v>
       </c>
       <c r="E3">
-        <v>0.05646488470289235</v>
+        <v>0.1470383042868111</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.814544085355891</v>
+        <v>3.209052450671763</v>
       </c>
       <c r="H3">
-        <v>1.193579702287323</v>
+        <v>2.487718045696269</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02373036781973692</v>
+        <v>0.0485000923745762</v>
       </c>
       <c r="K3">
-        <v>1.055370295738442</v>
+        <v>1.098887521905539</v>
       </c>
       <c r="L3">
-        <v>0.2009338917469421</v>
+        <v>0.4255283808693662</v>
       </c>
       <c r="M3">
-        <v>0.2840305423407941</v>
+        <v>0.4502797440044226</v>
       </c>
       <c r="N3">
-        <v>2.310642656935926</v>
+        <v>4.284718838245013</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.21399190404648</v>
+        <v>1.719194399606693</v>
       </c>
       <c r="C4">
-        <v>0.06968663122509611</v>
+        <v>0.03028105029029859</v>
       </c>
       <c r="D4">
-        <v>0.2328687280436981</v>
+        <v>0.4906163870430191</v>
       </c>
       <c r="E4">
-        <v>0.05609306102281586</v>
+        <v>0.1473111995798444</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.779626302355794</v>
+        <v>3.208465141679397</v>
       </c>
       <c r="H4">
-        <v>1.182850548445813</v>
+        <v>2.491188917446152</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02343561697208862</v>
+        <v>0.04836854933486467</v>
       </c>
       <c r="K4">
-        <v>0.9694102565568699</v>
+        <v>1.080813959041166</v>
       </c>
       <c r="L4">
-        <v>0.1931334438061967</v>
+        <v>0.4250258737939703</v>
       </c>
       <c r="M4">
-        <v>0.2665116693629344</v>
+        <v>0.4475014854760353</v>
       </c>
       <c r="N4">
-        <v>2.336308955324753</v>
+        <v>4.296641801196074</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.17640191419585</v>
+        <v>1.712354527909696</v>
       </c>
       <c r="C5">
-        <v>0.06743257668136238</v>
+        <v>0.02956093543991045</v>
       </c>
       <c r="D5">
-        <v>0.2294647284020783</v>
+        <v>0.4904436309721802</v>
       </c>
       <c r="E5">
-        <v>0.0559538289478958</v>
+        <v>0.1474316515133456</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.766000383552353</v>
+        <v>3.208526125980683</v>
       </c>
       <c r="H5">
-        <v>1.178818732995936</v>
+        <v>2.492796740605911</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02331518878342109</v>
+        <v>0.04831397236675805</v>
       </c>
       <c r="K5">
-        <v>0.9346731676659772</v>
+        <v>1.073607499737847</v>
       </c>
       <c r="L5">
-        <v>0.1900149922583338</v>
+        <v>0.4248623658032074</v>
       </c>
       <c r="M5">
-        <v>0.2594587387327785</v>
+        <v>0.4464233202725687</v>
       </c>
       <c r="N5">
-        <v>2.347237909983917</v>
+        <v>4.301726925897228</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.170182286925353</v>
+        <v>1.711232524675523</v>
       </c>
       <c r="C6">
-        <v>0.06705843283825175</v>
+        <v>0.02944110875230166</v>
       </c>
       <c r="D6">
-        <v>0.2289037570866554</v>
+        <v>0.4904178017665828</v>
       </c>
       <c r="E6">
-        <v>0.05593144155198537</v>
+        <v>0.1474522114468222</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.763773306127888</v>
+        <v>3.208554393780219</v>
       </c>
       <c r="H6">
-        <v>1.178169383921173</v>
+        <v>2.493075405841992</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02329516970774748</v>
+        <v>0.04830485107019999</v>
       </c>
       <c r="K6">
-        <v>0.9289218886569586</v>
+        <v>1.072420462489703</v>
       </c>
       <c r="L6">
-        <v>0.1895007170920664</v>
+        <v>0.4248377102123797</v>
       </c>
       <c r="M6">
-        <v>0.2582926174560995</v>
+        <v>0.4462475560063019</v>
       </c>
       <c r="N6">
-        <v>2.349080637130356</v>
+        <v>4.302584984247957</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.213483445849448</v>
+        <v>1.719101233042522</v>
       </c>
       <c r="C7">
-        <v>0.069656221708982</v>
+        <v>0.03027135545625015</v>
       </c>
       <c r="D7">
-        <v>0.2328225324309301</v>
+        <v>0.4906138657310493</v>
       </c>
       <c r="E7">
-        <v>0.05609113399812493</v>
+        <v>0.1473127865766788</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.779440138464068</v>
+        <v>3.208464748039077</v>
       </c>
       <c r="H7">
-        <v>1.182794815190789</v>
+        <v>2.491209817738095</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02343399424904558</v>
+        <v>0.04836781723229588</v>
       </c>
       <c r="K7">
-        <v>0.9689406358867814</v>
+        <v>1.080716127477729</v>
       </c>
       <c r="L7">
-        <v>0.1930911477103336</v>
+        <v>0.4250235014722819</v>
       </c>
       <c r="M7">
-        <v>0.2664162109307817</v>
+        <v>0.4474867261976279</v>
       </c>
       <c r="N7">
-        <v>2.336454462750126</v>
+        <v>4.296709464123737</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.408014752632795</v>
+        <v>1.755820265301594</v>
       </c>
       <c r="C8">
-        <v>0.08115292969502974</v>
+        <v>0.03389859136862583</v>
       </c>
       <c r="D8">
-        <v>0.2507621517436434</v>
+        <v>0.4918937268937071</v>
       </c>
       <c r="E8">
-        <v>0.05690468249622604</v>
+        <v>0.146778641869977</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.853961251074566</v>
+        <v>3.210705439996559</v>
       </c>
       <c r="H8">
-        <v>1.206235002490473</v>
+        <v>2.484674897224835</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02404412350302465</v>
+        <v>0.04863714968727884</v>
       </c>
       <c r="K8">
-        <v>1.148183383120227</v>
+        <v>1.118715400878415</v>
       </c>
       <c r="L8">
-        <v>0.2094737896504455</v>
+        <v>0.4262054439387697</v>
       </c>
       <c r="M8">
-        <v>0.3030383246283286</v>
+        <v>0.4534287040597818</v>
       </c>
       <c r="N8">
-        <v>2.284898667865775</v>
+        <v>4.272769687159752</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.804330325770593</v>
+        <v>1.83498017124586</v>
       </c>
       <c r="C9">
-        <v>0.103953138035294</v>
+        <v>0.04088270811575967</v>
       </c>
       <c r="D9">
-        <v>0.2885566002403408</v>
+        <v>0.4958890905497242</v>
       </c>
       <c r="E9">
-        <v>0.05891709810391355</v>
+        <v>0.1460213732962998</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.021836881264733</v>
+        <v>3.224571901202864</v>
       </c>
       <c r="H9">
-        <v>1.264167718421675</v>
+        <v>2.477950054636011</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02523946348904538</v>
+        <v>0.04913496063235279</v>
       </c>
       <c r="K9">
-        <v>1.511389474402591</v>
+        <v>1.198226448671107</v>
       </c>
       <c r="L9">
-        <v>0.2437898042622919</v>
+        <v>0.4298200363279392</v>
       </c>
       <c r="M9">
-        <v>0.3781195233901542</v>
+        <v>0.4667784962644674</v>
       </c>
       <c r="N9">
-        <v>2.199727042398649</v>
+        <v>4.232963499863871</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.107091503436152</v>
+        <v>1.89749341975579</v>
       </c>
       <c r="C10">
-        <v>0.1210030589169833</v>
+        <v>0.0459379430981528</v>
       </c>
       <c r="D10">
-        <v>0.3182199404133996</v>
+        <v>0.4997269535951858</v>
       </c>
       <c r="E10">
-        <v>0.06067669046269764</v>
+        <v>0.1456408065826906</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.160902628996212</v>
+        <v>3.240538493448753</v>
       </c>
       <c r="H10">
-        <v>1.315149251973565</v>
+        <v>2.476714854509055</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02612519786984357</v>
+        <v>0.04948249076918465</v>
       </c>
       <c r="K10">
-        <v>1.787670119858831</v>
+        <v>1.2596898890516</v>
       </c>
       <c r="L10">
-        <v>0.2706008211280135</v>
+        <v>0.4332631748022493</v>
       </c>
       <c r="M10">
-        <v>0.4357758163432806</v>
+        <v>0.4776189528392365</v>
       </c>
       <c r="N10">
-        <v>2.147871050056537</v>
+        <v>4.208066973904096</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247962593424575</v>
+        <v>1.92687705062508</v>
       </c>
       <c r="C11">
-        <v>0.1288596639628565</v>
+        <v>0.04822177658047622</v>
       </c>
       <c r="D11">
-        <v>0.3321996908877765</v>
+        <v>0.5016682600411855</v>
       </c>
       <c r="E11">
-        <v>0.06154474326527826</v>
+        <v>0.1455056218303667</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.228188130696822</v>
+        <v>3.249058284178489</v>
       </c>
       <c r="H11">
-        <v>1.340445372591944</v>
+        <v>2.476956242331227</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0265318092488922</v>
+        <v>0.0496366998002209</v>
       </c>
       <c r="K11">
-        <v>1.915966751351874</v>
+        <v>1.288313720702064</v>
       </c>
       <c r="L11">
-        <v>0.2832095999886377</v>
+        <v>0.4349999594147249</v>
       </c>
       <c r="M11">
-        <v>0.4626697569266298</v>
+        <v>0.4827743153133426</v>
       </c>
       <c r="N11">
-        <v>2.126856432842473</v>
+        <v>4.197684652569492</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.301815264492234</v>
+        <v>1.938139658951968</v>
       </c>
       <c r="C12">
-        <v>0.1318524526228373</v>
+        <v>0.04908436690975293</v>
       </c>
       <c r="D12">
-        <v>0.3375699788059592</v>
+        <v>0.5024314206779223</v>
       </c>
       <c r="E12">
-        <v>0.06188376815638641</v>
+        <v>0.1454598667635381</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.254301556668423</v>
+        <v>3.252465215845774</v>
       </c>
       <c r="H12">
-        <v>1.35035224269626</v>
+        <v>2.477163024924863</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02668650069591294</v>
+        <v>0.04969454075870949</v>
       </c>
       <c r="K12">
-        <v>1.964976452627127</v>
+        <v>1.299248186429651</v>
       </c>
       <c r="L12">
-        <v>0.2880493776994797</v>
+        <v>0.4356820869569589</v>
       </c>
       <c r="M12">
-        <v>0.472960715574601</v>
+        <v>0.4847586579141137</v>
       </c>
       <c r="N12">
-        <v>2.11929213594658</v>
+        <v>4.193888745937215</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.290193598579492</v>
+        <v>1.935708026912891</v>
       </c>
       <c r="C13">
-        <v>0.1312070619722761</v>
+        <v>0.04889869219468324</v>
       </c>
       <c r="D13">
-        <v>0.3364098791316081</v>
+        <v>0.5022658149167825</v>
       </c>
       <c r="E13">
-        <v>0.06181028448624026</v>
+        <v>0.1454694794457332</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.248648437310862</v>
+        <v>3.25172343687359</v>
       </c>
       <c r="H13">
-        <v>1.348203617032937</v>
+        <v>2.477113361443742</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02665315008204416</v>
+        <v>0.04968210828001851</v>
       </c>
       <c r="K13">
-        <v>1.954401511927102</v>
+        <v>1.296889021029727</v>
       </c>
       <c r="L13">
-        <v>0.2870040510713068</v>
+        <v>0.4355340925064866</v>
       </c>
       <c r="M13">
-        <v>0.4707394362832247</v>
+        <v>0.4843298671640639</v>
       </c>
       <c r="N13">
-        <v>2.12090334911683</v>
+        <v>4.194700228811726</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.252382569355404</v>
+        <v>1.927800915390549</v>
       </c>
       <c r="C14">
-        <v>0.1291055089852335</v>
+        <v>0.0482927873018042</v>
       </c>
       <c r="D14">
-        <v>0.3326399353976655</v>
+        <v>0.5017304843864991</v>
       </c>
       <c r="E14">
-        <v>0.06157242480946756</v>
+        <v>0.1455017486858203</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.230323459705403</v>
+        <v>3.249334953620746</v>
       </c>
       <c r="H14">
-        <v>1.341253695079644</v>
+        <v>2.476970942963987</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02654452031041821</v>
+        <v>0.04964146950455728</v>
       </c>
       <c r="K14">
-        <v>1.919989954548299</v>
+        <v>1.289211398193771</v>
       </c>
       <c r="L14">
-        <v>0.2836064313858913</v>
+        <v>0.4350555889467245</v>
       </c>
       <c r="M14">
-        <v>0.4635141927652597</v>
+        <v>0.482936925178258</v>
       </c>
       <c r="N14">
-        <v>2.126226086794418</v>
+        <v>4.197369642241625</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.229290101283596</v>
+        <v>1.922975237820594</v>
       </c>
       <c r="C15">
-        <v>0.1278206479548203</v>
+        <v>0.04792136112070011</v>
       </c>
       <c r="D15">
-        <v>0.3303408994227368</v>
+        <v>0.501406227116135</v>
       </c>
       <c r="E15">
-        <v>0.06142809024074225</v>
+        <v>0.1455222219593253</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.219183156366256</v>
+        <v>3.247895467172441</v>
       </c>
       <c r="H15">
-        <v>1.337040140453155</v>
+        <v>2.476898728643533</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02647808061216139</v>
+        <v>0.04961650496377779</v>
       </c>
       <c r="K15">
-        <v>1.898969008777357</v>
+        <v>1.284521029579508</v>
       </c>
       <c r="L15">
-        <v>0.2815339516171633</v>
+        <v>0.4347656730692506</v>
       </c>
       <c r="M15">
-        <v>0.4591027773449241</v>
+        <v>0.4820878881432833</v>
       </c>
       <c r="N15">
-        <v>2.129538386790784</v>
+        <v>4.199022401674171</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.097953160064321</v>
+        <v>1.895592135023094</v>
       </c>
       <c r="C16">
-        <v>0.120491901135992</v>
+        <v>0.045788373194938</v>
       </c>
       <c r="D16">
-        <v>0.3173166573315314</v>
+        <v>0.4996040110888345</v>
       </c>
       <c r="E16">
-        <v>0.0606213708906278</v>
+        <v>0.1456504030003849</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.156590941512746</v>
+        <v>3.240006988067762</v>
       </c>
       <c r="H16">
-        <v>1.313540535967803</v>
+        <v>2.476715231611564</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0260987145509457</v>
+        <v>0.04947233501933113</v>
       </c>
       <c r="K16">
-        <v>1.779342470305863</v>
+        <v>1.257832593550035</v>
       </c>
       <c r="L16">
-        <v>0.2697855900646005</v>
+        <v>0.4331530963724788</v>
       </c>
       <c r="M16">
-        <v>0.4340325552814619</v>
+        <v>0.4772865372033124</v>
       </c>
       <c r="N16">
-        <v>2.149298153812623</v>
+        <v>4.208764464665521</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.018225496639332</v>
+        <v>1.879035524308165</v>
       </c>
       <c r="C17">
-        <v>0.1160238827274327</v>
+        <v>0.04447582180483778</v>
       </c>
       <c r="D17">
-        <v>0.3094556430811508</v>
+        <v>0.4985484144233823</v>
       </c>
       <c r="E17">
-        <v>0.06014419443119046</v>
+        <v>0.1457387410410576</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.119260992156143</v>
+        <v>3.235489473152597</v>
       </c>
       <c r="H17">
-        <v>1.299680466626143</v>
+        <v>2.476808304358997</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02586705676476697</v>
+        <v>0.04938289936495366</v>
       </c>
       <c r="K17">
-        <v>1.706659787474365</v>
+        <v>1.241629966582394</v>
       </c>
       <c r="L17">
-        <v>0.2626879321915965</v>
+        <v>0.4322074474083877</v>
       </c>
       <c r="M17">
-        <v>0.4188308815939905</v>
+        <v>0.474398367375457</v>
       </c>
       <c r="N17">
-        <v>2.162095474475223</v>
+        <v>4.214982500393759</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.972660511132688</v>
+        <v>1.869601667661641</v>
       </c>
       <c r="C18">
-        <v>0.1134632474862514</v>
+        <v>0.04371938646838203</v>
       </c>
       <c r="D18">
-        <v>0.3049794881192582</v>
+        <v>0.4979596636013781</v>
       </c>
       <c r="E18">
-        <v>0.05987606023477987</v>
+        <v>0.1457931226675573</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098164939245123</v>
+        <v>3.233009386952659</v>
       </c>
       <c r="H18">
-        <v>1.29190495673285</v>
+        <v>2.476937454453292</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02573414808830776</v>
+        <v>0.04933109251419587</v>
       </c>
       <c r="K18">
-        <v>1.665097502439522</v>
+        <v>1.232373136990958</v>
       </c>
       <c r="L18">
-        <v>0.2586439783053862</v>
+        <v>0.4316795860309099</v>
       </c>
       <c r="M18">
-        <v>0.4101492310674857</v>
+        <v>0.4727582562687402</v>
       </c>
       <c r="N18">
-        <v>2.169697007159229</v>
+        <v>4.218647730288438</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.957281565036681</v>
+        <v>1.866422834881973</v>
       </c>
       <c r="C19">
-        <v>0.1125977564297358</v>
+        <v>0.04346301365016814</v>
       </c>
       <c r="D19">
-        <v>0.3034715258450831</v>
+        <v>0.4977634852659065</v>
       </c>
       <c r="E19">
-        <v>0.05978634376858771</v>
+        <v>0.1458121494089273</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.091085007218737</v>
+        <v>3.23218998564181</v>
       </c>
       <c r="H19">
-        <v>1.289305310616271</v>
+        <v>2.476994174017221</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02568919960977922</v>
+        <v>0.04931348865524576</v>
       </c>
       <c r="K19">
-        <v>1.651065475119339</v>
+        <v>1.229249673286006</v>
       </c>
       <c r="L19">
-        <v>0.2572811966899877</v>
+        <v>0.4315036201528386</v>
       </c>
       <c r="M19">
-        <v>0.4072200920749083</v>
+        <v>0.4722065674348741</v>
       </c>
       <c r="N19">
-        <v>2.172311449856011</v>
+        <v>4.219903961800952</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.026682006443593</v>
+        <v>1.880788788311634</v>
       </c>
       <c r="C20">
-        <v>0.1164985312318265</v>
+        <v>0.04461569920799491</v>
       </c>
       <c r="D20">
-        <v>0.3102877278076761</v>
+        <v>0.4986588806540624</v>
       </c>
       <c r="E20">
-        <v>0.06019433194182433</v>
+        <v>0.1457289677622366</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.123195618430515</v>
+        <v>3.235958130036266</v>
       </c>
       <c r="H20">
-        <v>1.30113538929362</v>
+        <v>2.476790571514215</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0258916811947234</v>
+        <v>0.04939245777696044</v>
       </c>
       <c r="K20">
-        <v>1.714371495528525</v>
+        <v>1.243348297651295</v>
       </c>
       <c r="L20">
-        <v>0.2634394720119673</v>
+        <v>0.4323064526603844</v>
       </c>
       <c r="M20">
-        <v>0.420442637081841</v>
+        <v>0.4747036361317711</v>
       </c>
       <c r="N20">
-        <v>2.160708089305388</v>
+        <v>4.214311391330142</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.263474332426881</v>
+        <v>1.930119746769492</v>
       </c>
       <c r="C21">
-        <v>0.1297222795238042</v>
+        <v>0.04847081704757272</v>
       </c>
       <c r="D21">
-        <v>0.3337451285815973</v>
+        <v>0.5018869638032584</v>
       </c>
       <c r="E21">
-        <v>0.06164200513024021</v>
+        <v>0.1454921230329767</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.235688281227851</v>
+        <v>3.250031605745136</v>
       </c>
       <c r="H21">
-        <v>1.343285947592108</v>
+        <v>2.477009644577691</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02657640647985815</v>
+        <v>0.04965342112025439</v>
       </c>
       <c r="K21">
-        <v>1.93008546123005</v>
+        <v>1.29146391896748</v>
       </c>
       <c r="L21">
-        <v>0.2846025786988946</v>
+        <v>0.4351954741713229</v>
       </c>
       <c r="M21">
-        <v>0.4656334300532876</v>
+        <v>0.4833451950242775</v>
       </c>
       <c r="N21">
-        <v>2.124651794764929</v>
+        <v>4.19658188906179</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.421221566538293</v>
+        <v>1.963150968704326</v>
       </c>
       <c r="C22">
-        <v>0.1384694401493789</v>
+        <v>0.05097726973670547</v>
       </c>
       <c r="D22">
-        <v>0.3495250609580296</v>
+        <v>0.5041600490828699</v>
       </c>
       <c r="E22">
-        <v>0.06264856252714601</v>
+        <v>0.1453690105602305</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.312932810562501</v>
+        <v>3.260282526780713</v>
       </c>
       <c r="H22">
-        <v>1.37275772693269</v>
+        <v>2.477825249510602</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02702819133161505</v>
+        <v>0.0498207445943919</v>
       </c>
       <c r="K22">
-        <v>2.073580128667174</v>
+        <v>1.323465305427248</v>
       </c>
       <c r="L22">
-        <v>0.2988164723759326</v>
+        <v>0.437226068162019</v>
       </c>
       <c r="M22">
-        <v>0.4957966543411345</v>
+        <v>0.4891801247275396</v>
       </c>
       <c r="N22">
-        <v>2.103392844471571</v>
+        <v>4.185785335855556</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.336735547503508</v>
+        <v>1.945449367595245</v>
       </c>
       <c r="C23">
-        <v>0.1337901931041756</v>
+        <v>0.04964071760099387</v>
       </c>
       <c r="D23">
-        <v>0.3410595762034916</v>
+        <v>0.5029319389169586</v>
       </c>
       <c r="E23">
-        <v>0.0621056066407526</v>
+        <v>0.1454318255307587</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.271345586438912</v>
+        <v>3.254715062348737</v>
       </c>
       <c r="H23">
-        <v>1.356843102280806</v>
+        <v>2.477328463176804</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02678660716753001</v>
+        <v>0.04973173527744379</v>
       </c>
       <c r="K23">
-        <v>1.996746458682736</v>
+        <v>1.306334845735734</v>
       </c>
       <c r="L23">
-        <v>0.2911931819531901</v>
+        <v>0.4361292907050114</v>
       </c>
       <c r="M23">
-        <v>0.4796365498911541</v>
+        <v>0.4860488162058658</v>
       </c>
       <c r="N23">
-        <v>2.114519897385833</v>
+        <v>4.191475303414606</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.022857976825264</v>
+        <v>1.879995873607243</v>
       </c>
       <c r="C24">
-        <v>0.1162839176892732</v>
+        <v>0.04455246634448429</v>
       </c>
       <c r="D24">
-        <v>0.3099114080912244</v>
+        <v>0.4986088824072965</v>
       </c>
       <c r="E24">
-        <v>0.06017164550283916</v>
+        <v>0.1457333750625889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.121415639767179</v>
+        <v>3.235745885505651</v>
       </c>
       <c r="H24">
-        <v>1.300477020012551</v>
+        <v>2.476798352888551</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02588054764891545</v>
+        <v>0.04938813763146754</v>
       </c>
       <c r="K24">
-        <v>1.71088433850008</v>
+        <v>1.24257125863295</v>
       </c>
       <c r="L24">
-        <v>0.2630995873410313</v>
+        <v>0.4322616431508237</v>
       </c>
       <c r="M24">
-        <v>0.4197137826111756</v>
+        <v>0.4745655607746713</v>
       </c>
       <c r="N24">
-        <v>2.161334567294915</v>
+        <v>4.214614518125543</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.695277604579985</v>
+        <v>1.812800154358541</v>
       </c>
       <c r="C25">
-        <v>0.09774373657020874</v>
+        <v>0.0390068512662225</v>
       </c>
       <c r="D25">
-        <v>0.2780225355434993</v>
+        <v>0.4946495295473454</v>
       </c>
       <c r="E25">
-        <v>0.05832539573644979</v>
+        <v>0.1461952829916697</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.973851430171351</v>
+        <v>3.219806142817021</v>
       </c>
       <c r="H25">
-        <v>1.24710391606655</v>
+        <v>2.479118065668985</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02491541015715093</v>
+        <v>0.04900350864449621</v>
       </c>
       <c r="K25">
-        <v>1.411653174445036</v>
+        <v>1.176181720944101</v>
       </c>
       <c r="L25">
-        <v>0.2342459936640893</v>
+        <v>0.4287036813624923</v>
       </c>
       <c r="M25">
-        <v>0.3574089356455943</v>
+        <v>0.4629855504899751</v>
       </c>
       <c r="N25">
-        <v>2.220964029962744</v>
+        <v>4.242968152409446</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.766253692609723</v>
+        <v>1.461639943602933</v>
       </c>
       <c r="C2">
-        <v>0.03487257306364455</v>
+        <v>0.0842803468156319</v>
       </c>
       <c r="D2">
-        <v>0.4923411594385243</v>
+        <v>0.2557894647597436</v>
       </c>
       <c r="E2">
-        <v>0.1466535952816503</v>
+        <v>0.05715241354150713</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.211953454185817</v>
+        <v>1.875539076097283</v>
       </c>
       <c r="H2">
-        <v>2.483316680697243</v>
+        <v>1.213357439728355</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0487080606150796</v>
+        <v>0.02420908284447876</v>
       </c>
       <c r="K2">
-        <v>1.129349248461011</v>
+        <v>1.197462982994807</v>
       </c>
       <c r="L2">
-        <v>0.4266135680399188</v>
+        <v>0.2140517721573332</v>
       </c>
       <c r="M2">
-        <v>0.4551536631419779</v>
+        <v>0.313164754308545</v>
       </c>
       <c r="N2">
-        <v>4.266766516072522</v>
+        <v>2.271973175600905</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.736537289183218</v>
+        <v>1.30717499550363</v>
       </c>
       <c r="C3">
-        <v>0.03203795572482449</v>
+        <v>0.07522581077082435</v>
       </c>
       <c r="D3">
-        <v>0.4911562912160434</v>
+        <v>0.2413997069272682</v>
       </c>
       <c r="E3">
-        <v>0.1470383042868111</v>
+        <v>0.0564648847029261</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.209052450671763</v>
+        <v>1.814544085355905</v>
       </c>
       <c r="H3">
-        <v>2.487718045696269</v>
+        <v>1.193579702287323</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0485000923745762</v>
+        <v>0.02373036781963656</v>
       </c>
       <c r="K3">
-        <v>1.098887521905539</v>
+        <v>1.055370295738442</v>
       </c>
       <c r="L3">
-        <v>0.4255283808693662</v>
+        <v>0.2009338917469208</v>
       </c>
       <c r="M3">
-        <v>0.4502797440044226</v>
+        <v>0.2840305423408047</v>
       </c>
       <c r="N3">
-        <v>4.284718838245013</v>
+        <v>2.310642656935869</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.719194399606693</v>
+        <v>1.213991904046594</v>
       </c>
       <c r="C4">
-        <v>0.03028105029029859</v>
+        <v>0.069686631224954</v>
       </c>
       <c r="D4">
-        <v>0.4906163870430191</v>
+        <v>0.2328687280436981</v>
       </c>
       <c r="E4">
-        <v>0.1473111995798444</v>
+        <v>0.05609306102283185</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.208465141679397</v>
+        <v>1.77962630235578</v>
       </c>
       <c r="H4">
-        <v>2.491188917446152</v>
+        <v>1.1828505484457</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04836854933486467</v>
+        <v>0.02343561697208774</v>
       </c>
       <c r="K4">
-        <v>1.080813959041166</v>
+        <v>0.9694102565568699</v>
       </c>
       <c r="L4">
-        <v>0.4250258737939703</v>
+        <v>0.1931334438062606</v>
       </c>
       <c r="M4">
-        <v>0.4475014854760353</v>
+        <v>0.2665116693629557</v>
       </c>
       <c r="N4">
-        <v>4.296641801196074</v>
+        <v>2.336308955324796</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.712354527909696</v>
+        <v>1.176401914195566</v>
       </c>
       <c r="C5">
-        <v>0.02956093543991045</v>
+        <v>0.06743257668149738</v>
       </c>
       <c r="D5">
-        <v>0.4904436309721802</v>
+        <v>0.2294647284022773</v>
       </c>
       <c r="E5">
-        <v>0.1474316515133456</v>
+        <v>0.0559538289478958</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.208526125980683</v>
+        <v>1.766000383552367</v>
       </c>
       <c r="H5">
-        <v>2.492796740605911</v>
+        <v>1.17881873299595</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04831397236675805</v>
+        <v>0.02331518878347083</v>
       </c>
       <c r="K5">
-        <v>1.073607499737847</v>
+        <v>0.9346731676659772</v>
       </c>
       <c r="L5">
-        <v>0.4248623658032074</v>
+        <v>0.1900149922583267</v>
       </c>
       <c r="M5">
-        <v>0.4464233202725687</v>
+        <v>0.2594587387327749</v>
       </c>
       <c r="N5">
-        <v>4.301726925897228</v>
+        <v>2.347237909984003</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.711232524675523</v>
+        <v>1.170182286925154</v>
       </c>
       <c r="C6">
-        <v>0.02944110875230166</v>
+        <v>0.06705843283812385</v>
       </c>
       <c r="D6">
-        <v>0.4904178017665828</v>
+        <v>0.2289037570869681</v>
       </c>
       <c r="E6">
-        <v>0.1474522114468222</v>
+        <v>0.05593144155201379</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.208554393780219</v>
+        <v>1.763773306127803</v>
       </c>
       <c r="H6">
-        <v>2.493075405841992</v>
+        <v>1.178169383921173</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04830485107019999</v>
+        <v>0.0232951697077608</v>
       </c>
       <c r="K6">
-        <v>1.072420462489703</v>
+        <v>0.9289218886570154</v>
       </c>
       <c r="L6">
-        <v>0.4248377102123797</v>
+        <v>0.1895007170920238</v>
       </c>
       <c r="M6">
-        <v>0.4462475560063019</v>
+        <v>0.2582926174560818</v>
       </c>
       <c r="N6">
-        <v>4.302584984247957</v>
+        <v>2.349080637130356</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.719101233042522</v>
+        <v>1.213483445849477</v>
       </c>
       <c r="C7">
-        <v>0.03027135545625015</v>
+        <v>0.06965622170898911</v>
       </c>
       <c r="D7">
-        <v>0.4906138657310493</v>
+        <v>0.2328225324309301</v>
       </c>
       <c r="E7">
-        <v>0.1473127865766788</v>
+        <v>0.05609113399813559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.208464748039077</v>
+        <v>1.779440138464025</v>
       </c>
       <c r="H7">
-        <v>2.491209817738095</v>
+        <v>1.182794815190761</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04836781723229588</v>
+        <v>0.02343399424901715</v>
       </c>
       <c r="K7">
-        <v>1.080716127477729</v>
+        <v>0.9689406358867245</v>
       </c>
       <c r="L7">
-        <v>0.4250235014722819</v>
+        <v>0.1930911477101986</v>
       </c>
       <c r="M7">
-        <v>0.4474867261976279</v>
+        <v>0.2664162109308066</v>
       </c>
       <c r="N7">
-        <v>4.296709464123737</v>
+        <v>2.336454462750012</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.755820265301594</v>
+        <v>1.408014752632738</v>
       </c>
       <c r="C8">
-        <v>0.03389859136862583</v>
+        <v>0.08115292969469579</v>
       </c>
       <c r="D8">
-        <v>0.4918937268937071</v>
+        <v>0.2507621517437713</v>
       </c>
       <c r="E8">
-        <v>0.146778641869977</v>
+        <v>0.05690468249623848</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.210705439996559</v>
+        <v>1.85396125107448</v>
       </c>
       <c r="H8">
-        <v>2.484674897224835</v>
+        <v>1.206235002490416</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04863714968727884</v>
+        <v>0.02404412350308149</v>
       </c>
       <c r="K8">
-        <v>1.118715400878415</v>
+        <v>1.14818338312017</v>
       </c>
       <c r="L8">
-        <v>0.4262054439387697</v>
+        <v>0.2094737896504455</v>
       </c>
       <c r="M8">
-        <v>0.4534287040597818</v>
+        <v>0.3030383246283286</v>
       </c>
       <c r="N8">
-        <v>4.272769687159752</v>
+        <v>2.284898667865761</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.83498017124586</v>
+        <v>1.804330325770621</v>
       </c>
       <c r="C9">
-        <v>0.04088270811575967</v>
+        <v>0.1039531380351093</v>
       </c>
       <c r="D9">
-        <v>0.4958890905497242</v>
+        <v>0.2885566002404829</v>
       </c>
       <c r="E9">
-        <v>0.1460213732962998</v>
+        <v>0.05891709810390111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.224571901202864</v>
+        <v>2.021836881264676</v>
       </c>
       <c r="H9">
-        <v>2.477950054636011</v>
+        <v>1.264167718421788</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04913496063235279</v>
+        <v>0.025239463489104</v>
       </c>
       <c r="K9">
-        <v>1.198226448671107</v>
+        <v>1.511389474402563</v>
       </c>
       <c r="L9">
-        <v>0.4298200363279392</v>
+        <v>0.2437898042622493</v>
       </c>
       <c r="M9">
-        <v>0.4667784962644674</v>
+        <v>0.3781195233901613</v>
       </c>
       <c r="N9">
-        <v>4.232963499863871</v>
+        <v>2.199727042398649</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.89749341975579</v>
+        <v>2.107091503436209</v>
       </c>
       <c r="C10">
-        <v>0.0459379430981528</v>
+        <v>0.1210030589170543</v>
       </c>
       <c r="D10">
-        <v>0.4997269535951858</v>
+        <v>0.3182199404134991</v>
       </c>
       <c r="E10">
-        <v>0.1456408065826906</v>
+        <v>0.06067669046270296</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.240538493448753</v>
+        <v>2.160902628996269</v>
       </c>
       <c r="H10">
-        <v>2.476714854509055</v>
+        <v>1.315149251973565</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04948249076918465</v>
+        <v>0.02612519786976186</v>
       </c>
       <c r="K10">
-        <v>1.2596898890516</v>
+        <v>1.787670119858689</v>
       </c>
       <c r="L10">
-        <v>0.4332631748022493</v>
+        <v>0.2706008211280562</v>
       </c>
       <c r="M10">
-        <v>0.4776189528392365</v>
+        <v>0.4357758163432806</v>
       </c>
       <c r="N10">
-        <v>4.208066973904096</v>
+        <v>2.147871050056494</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.92687705062508</v>
+        <v>2.247962593424575</v>
       </c>
       <c r="C11">
-        <v>0.04822177658047622</v>
+        <v>0.1288596639628565</v>
       </c>
       <c r="D11">
-        <v>0.5016682600411855</v>
+        <v>0.3321996908877907</v>
       </c>
       <c r="E11">
-        <v>0.1455056218303667</v>
+        <v>0.06154474326528003</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.249058284178489</v>
+        <v>2.228188130696822</v>
       </c>
       <c r="H11">
-        <v>2.476956242331227</v>
+        <v>1.34044537259183</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0496366998002209</v>
+        <v>0.02653180924884246</v>
       </c>
       <c r="K11">
-        <v>1.288313720702064</v>
+        <v>1.915966751351817</v>
       </c>
       <c r="L11">
-        <v>0.4349999594147249</v>
+        <v>0.2832095999886519</v>
       </c>
       <c r="M11">
-        <v>0.4827743153133426</v>
+        <v>0.4626697569266298</v>
       </c>
       <c r="N11">
-        <v>4.197684652569492</v>
+        <v>2.126856432842501</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.938139658951968</v>
+        <v>2.301815264492063</v>
       </c>
       <c r="C12">
-        <v>0.04908436690975293</v>
+        <v>0.1318524526228515</v>
       </c>
       <c r="D12">
-        <v>0.5024314206779223</v>
+        <v>0.3375699788058597</v>
       </c>
       <c r="E12">
-        <v>0.1454598667635381</v>
+        <v>0.06188376815636865</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.252465215845774</v>
+        <v>2.254301556668565</v>
       </c>
       <c r="H12">
-        <v>2.477163024924863</v>
+        <v>1.350352242696374</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04969454075870949</v>
+        <v>0.02668650069594847</v>
       </c>
       <c r="K12">
-        <v>1.299248186429651</v>
+        <v>1.96497645262707</v>
       </c>
       <c r="L12">
-        <v>0.4356820869569589</v>
+        <v>0.2880493776994939</v>
       </c>
       <c r="M12">
-        <v>0.4847586579141137</v>
+        <v>0.4729607155745796</v>
       </c>
       <c r="N12">
-        <v>4.193888745937215</v>
+        <v>2.11929213594658</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.935708026912891</v>
+        <v>2.290193598579435</v>
       </c>
       <c r="C13">
-        <v>0.04889869219468324</v>
+        <v>0.1312070619720771</v>
       </c>
       <c r="D13">
-        <v>0.5022658149167825</v>
+        <v>0.3364098791313808</v>
       </c>
       <c r="E13">
-        <v>0.1454694794457332</v>
+        <v>0.06181028448623671</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.25172343687359</v>
+        <v>2.248648437310919</v>
       </c>
       <c r="H13">
-        <v>2.477113361443742</v>
+        <v>1.348203617032908</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04968210828001851</v>
+        <v>0.0266531500820939</v>
       </c>
       <c r="K13">
-        <v>1.296889021029727</v>
+        <v>1.954401511927045</v>
       </c>
       <c r="L13">
-        <v>0.4355340925064866</v>
+        <v>0.2870040510712926</v>
       </c>
       <c r="M13">
-        <v>0.4843298671640639</v>
+        <v>0.4707394362832176</v>
       </c>
       <c r="N13">
-        <v>4.194700228811726</v>
+        <v>2.120903349116858</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.927800915390549</v>
+        <v>2.252382569355348</v>
       </c>
       <c r="C14">
-        <v>0.0482927873018042</v>
+        <v>0.1291055089850346</v>
       </c>
       <c r="D14">
-        <v>0.5017304843864991</v>
+        <v>0.332639935397566</v>
       </c>
       <c r="E14">
-        <v>0.1455017486858203</v>
+        <v>0.06157242480945513</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.249334953620746</v>
+        <v>2.230323459705403</v>
       </c>
       <c r="H14">
-        <v>2.476970942963987</v>
+        <v>1.341253695079615</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04964146950455728</v>
+        <v>0.0265445203105088</v>
       </c>
       <c r="K14">
-        <v>1.289211398193771</v>
+        <v>1.919989954548214</v>
       </c>
       <c r="L14">
-        <v>0.4350555889467245</v>
+        <v>0.2836064313857491</v>
       </c>
       <c r="M14">
-        <v>0.482936925178258</v>
+        <v>0.4635141927652597</v>
       </c>
       <c r="N14">
-        <v>4.197369642241625</v>
+        <v>2.126226086794446</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.922975237820594</v>
+        <v>2.229290101283652</v>
       </c>
       <c r="C15">
-        <v>0.04792136112070011</v>
+        <v>0.1278206479550477</v>
       </c>
       <c r="D15">
-        <v>0.501406227116135</v>
+        <v>0.3303408994225094</v>
       </c>
       <c r="E15">
-        <v>0.1455222219593253</v>
+        <v>0.0614280902407085</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.247895467172441</v>
+        <v>2.219183156366228</v>
       </c>
       <c r="H15">
-        <v>2.476898728643533</v>
+        <v>1.337040140453183</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04961650496377779</v>
+        <v>0.02647808061217916</v>
       </c>
       <c r="K15">
-        <v>1.284521029579508</v>
+        <v>1.898969008777328</v>
       </c>
       <c r="L15">
-        <v>0.4347656730692506</v>
+        <v>0.2815339516172344</v>
       </c>
       <c r="M15">
-        <v>0.4820878881432833</v>
+        <v>0.459102777344917</v>
       </c>
       <c r="N15">
-        <v>4.199022401674171</v>
+        <v>2.129538386790784</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.895592135023094</v>
+        <v>2.097953160064321</v>
       </c>
       <c r="C16">
-        <v>0.045788373194938</v>
+        <v>0.120491901136063</v>
       </c>
       <c r="D16">
-        <v>0.4996040110888345</v>
+        <v>0.3173166573315029</v>
       </c>
       <c r="E16">
-        <v>0.1456504030003849</v>
+        <v>0.06062137089058872</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.240006988067762</v>
+        <v>2.15659094151269</v>
       </c>
       <c r="H16">
-        <v>2.476715231611564</v>
+        <v>1.313540535967718</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04947233501933113</v>
+        <v>0.02609871455089774</v>
       </c>
       <c r="K16">
-        <v>1.257832593550035</v>
+        <v>1.779342470305863</v>
       </c>
       <c r="L16">
-        <v>0.4331530963724788</v>
+        <v>0.2697855900646005</v>
       </c>
       <c r="M16">
-        <v>0.4772865372033124</v>
+        <v>0.4340325552814761</v>
       </c>
       <c r="N16">
-        <v>4.208764464665521</v>
+        <v>2.149298153812609</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.879035524308165</v>
+        <v>2.018225496639388</v>
       </c>
       <c r="C17">
-        <v>0.04447582180483778</v>
+        <v>0.1160238827270064</v>
       </c>
       <c r="D17">
-        <v>0.4985484144233823</v>
+        <v>0.309455643081165</v>
       </c>
       <c r="E17">
-        <v>0.1457387410410576</v>
+        <v>0.06014419443117802</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.235489473152597</v>
+        <v>2.119260992156256</v>
       </c>
       <c r="H17">
-        <v>2.476808304358997</v>
+        <v>1.299680466626171</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04938289936495366</v>
+        <v>0.02586705676487888</v>
       </c>
       <c r="K17">
-        <v>1.241629966582394</v>
+        <v>1.706659787474308</v>
       </c>
       <c r="L17">
-        <v>0.4322074474083877</v>
+        <v>0.2626879321916107</v>
       </c>
       <c r="M17">
-        <v>0.474398367375457</v>
+        <v>0.4188308815939905</v>
       </c>
       <c r="N17">
-        <v>4.214982500393759</v>
+        <v>2.162095474475151</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.869601667661641</v>
+        <v>1.972660511132631</v>
       </c>
       <c r="C18">
-        <v>0.04371938646838203</v>
+        <v>0.1134632474860098</v>
       </c>
       <c r="D18">
-        <v>0.4979596636013781</v>
+        <v>0.3049794881193861</v>
       </c>
       <c r="E18">
-        <v>0.1457931226675573</v>
+        <v>0.05987606023476211</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.233009386952659</v>
+        <v>2.098164939245152</v>
       </c>
       <c r="H18">
-        <v>2.476937454453292</v>
+        <v>1.29190495673285</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04933109251419587</v>
+        <v>0.02573414808835039</v>
       </c>
       <c r="K18">
-        <v>1.232373136990958</v>
+        <v>1.665097502439636</v>
       </c>
       <c r="L18">
-        <v>0.4316795860309099</v>
+        <v>0.2586439783053152</v>
       </c>
       <c r="M18">
-        <v>0.4727582562687402</v>
+        <v>0.4101492310674644</v>
       </c>
       <c r="N18">
-        <v>4.218647730288438</v>
+        <v>2.169697007159229</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.866422834881973</v>
+        <v>1.957281565036737</v>
       </c>
       <c r="C19">
-        <v>0.04346301365016814</v>
+        <v>0.1125977564297358</v>
       </c>
       <c r="D19">
-        <v>0.4977634852659065</v>
+        <v>0.3034715258450547</v>
       </c>
       <c r="E19">
-        <v>0.1458121494089273</v>
+        <v>0.05978634376862324</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.23218998564181</v>
+        <v>2.091085007218851</v>
       </c>
       <c r="H19">
-        <v>2.476994174017221</v>
+        <v>1.289305310616299</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04931348865524576</v>
+        <v>0.02568919960980054</v>
       </c>
       <c r="K19">
-        <v>1.229249673286006</v>
+        <v>1.651065475119339</v>
       </c>
       <c r="L19">
-        <v>0.4315036201528386</v>
+        <v>0.2572811966899877</v>
       </c>
       <c r="M19">
-        <v>0.4722065674348741</v>
+        <v>0.4072200920749225</v>
       </c>
       <c r="N19">
-        <v>4.219903961800952</v>
+        <v>2.172311449856068</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.880788788311634</v>
+        <v>2.026682006443593</v>
       </c>
       <c r="C20">
-        <v>0.04461569920799491</v>
+        <v>0.1164985312319402</v>
       </c>
       <c r="D20">
-        <v>0.4986588806540624</v>
+        <v>0.3102877278076761</v>
       </c>
       <c r="E20">
-        <v>0.1457289677622366</v>
+        <v>0.06019433194183677</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.235958130036266</v>
+        <v>2.123195618430543</v>
       </c>
       <c r="H20">
-        <v>2.476790571514215</v>
+        <v>1.301135389293734</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04939245777696044</v>
+        <v>0.02589168119483887</v>
       </c>
       <c r="K20">
-        <v>1.243348297651295</v>
+        <v>1.714371495528582</v>
       </c>
       <c r="L20">
-        <v>0.4323064526603844</v>
+        <v>0.2634394720119531</v>
       </c>
       <c r="M20">
-        <v>0.4747036361317711</v>
+        <v>0.4204426370818481</v>
       </c>
       <c r="N20">
-        <v>4.214311391330142</v>
+        <v>2.160708089305444</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.930119746769492</v>
+        <v>2.263474332426767</v>
       </c>
       <c r="C21">
-        <v>0.04847081704757272</v>
+        <v>0.1297222795235768</v>
       </c>
       <c r="D21">
-        <v>0.5018869638032584</v>
+        <v>0.3337451285817252</v>
       </c>
       <c r="E21">
-        <v>0.1454921230329767</v>
+        <v>0.06164200513025442</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.250031605745136</v>
+        <v>2.235688281227823</v>
       </c>
       <c r="H21">
-        <v>2.477009644577691</v>
+        <v>1.343285947592335</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04965342112025439</v>
+        <v>0.02657640647986526</v>
       </c>
       <c r="K21">
-        <v>1.29146391896748</v>
+        <v>1.930085461229936</v>
       </c>
       <c r="L21">
-        <v>0.4351954741713229</v>
+        <v>0.2846025786988235</v>
       </c>
       <c r="M21">
-        <v>0.4833451950242775</v>
+        <v>0.4656334300532734</v>
       </c>
       <c r="N21">
-        <v>4.19658188906179</v>
+        <v>2.124651794764929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.963150968704326</v>
+        <v>2.42122156653835</v>
       </c>
       <c r="C22">
-        <v>0.05097726973670547</v>
+        <v>0.1384694401491373</v>
       </c>
       <c r="D22">
-        <v>0.5041600490828699</v>
+        <v>0.3495250609581291</v>
       </c>
       <c r="E22">
-        <v>0.1453690105602305</v>
+        <v>0.06264856252717443</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.260282526780713</v>
+        <v>2.312932810562444</v>
       </c>
       <c r="H22">
-        <v>2.477825249510602</v>
+        <v>1.372757726932548</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0498207445943919</v>
+        <v>0.02702819133164702</v>
       </c>
       <c r="K22">
-        <v>1.323465305427248</v>
+        <v>2.073580128667146</v>
       </c>
       <c r="L22">
-        <v>0.437226068162019</v>
+        <v>0.2988164723759041</v>
       </c>
       <c r="M22">
-        <v>0.4891801247275396</v>
+        <v>0.4957966543411771</v>
       </c>
       <c r="N22">
-        <v>4.185785335855556</v>
+        <v>2.103392844471514</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.945449367595245</v>
+        <v>2.336735547503565</v>
       </c>
       <c r="C23">
-        <v>0.04964071760099387</v>
+        <v>0.1337901931041898</v>
       </c>
       <c r="D23">
-        <v>0.5029319389169586</v>
+        <v>0.3410595762033779</v>
       </c>
       <c r="E23">
-        <v>0.1454318255307587</v>
+        <v>0.06210560664070819</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.254715062348737</v>
+        <v>2.271345586438827</v>
       </c>
       <c r="H23">
-        <v>2.477328463176804</v>
+        <v>1.356843102280834</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04973173527744379</v>
+        <v>0.02678660716751047</v>
       </c>
       <c r="K23">
-        <v>1.306334845735734</v>
+        <v>1.996746458682651</v>
       </c>
       <c r="L23">
-        <v>0.4361292907050114</v>
+        <v>0.2911931819530764</v>
       </c>
       <c r="M23">
-        <v>0.4860488162058658</v>
+        <v>0.4796365498911612</v>
       </c>
       <c r="N23">
-        <v>4.191475303414606</v>
+        <v>2.114519897385861</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.879995873607243</v>
+        <v>2.022857976825094</v>
       </c>
       <c r="C24">
-        <v>0.04455246634448429</v>
+        <v>0.116283917688861</v>
       </c>
       <c r="D24">
-        <v>0.4986088824072965</v>
+        <v>0.3099114080911107</v>
       </c>
       <c r="E24">
-        <v>0.1457333750625889</v>
+        <v>0.06017164550281606</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.235745885505651</v>
+        <v>2.12141563976715</v>
       </c>
       <c r="H24">
-        <v>2.476798352888551</v>
+        <v>1.300477020012522</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04938813763146754</v>
+        <v>0.02588054764898295</v>
       </c>
       <c r="K24">
-        <v>1.24257125863295</v>
+        <v>1.71088433850008</v>
       </c>
       <c r="L24">
-        <v>0.4322616431508237</v>
+        <v>0.2630995873409034</v>
       </c>
       <c r="M24">
-        <v>0.4745655607746713</v>
+        <v>0.4197137826111828</v>
       </c>
       <c r="N24">
-        <v>4.214614518125543</v>
+        <v>2.161334567294858</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.812800154358541</v>
+        <v>1.69527760458007</v>
       </c>
       <c r="C25">
-        <v>0.0390068512662225</v>
+        <v>0.09774373657000979</v>
       </c>
       <c r="D25">
-        <v>0.4946495295473454</v>
+        <v>0.2780225355434567</v>
       </c>
       <c r="E25">
-        <v>0.1461952829916697</v>
+        <v>0.05832539573648532</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.219806142817021</v>
+        <v>1.973851430171379</v>
       </c>
       <c r="H25">
-        <v>2.479118065668985</v>
+        <v>1.247103916066521</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04900350864449621</v>
+        <v>0.02491541015715804</v>
       </c>
       <c r="K25">
-        <v>1.176181720944101</v>
+        <v>1.411653174445092</v>
       </c>
       <c r="L25">
-        <v>0.4287036813624923</v>
+        <v>0.2342459936641177</v>
       </c>
       <c r="M25">
-        <v>0.4629855504899751</v>
+        <v>0.3574089356456014</v>
       </c>
       <c r="N25">
-        <v>4.242968152409446</v>
+        <v>2.220964029962758</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.461639943602933</v>
+        <v>1.031915985348718</v>
       </c>
       <c r="C2">
-        <v>0.0842803468156319</v>
+        <v>0.1281031566302744</v>
       </c>
       <c r="D2">
-        <v>0.2557894647597436</v>
+        <v>0.1904360283652693</v>
       </c>
       <c r="E2">
-        <v>0.05715241354150713</v>
+        <v>0.04960043312914131</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.875539076097283</v>
+        <v>1.720261095562364</v>
       </c>
       <c r="H2">
-        <v>1.213357439728355</v>
+        <v>0.009242583701359858</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01603862788123323</v>
       </c>
       <c r="J2">
-        <v>0.02420908284447876</v>
+        <v>1.074910265505224</v>
       </c>
       <c r="K2">
-        <v>1.197462982994807</v>
+        <v>1.227169227217559</v>
       </c>
       <c r="L2">
-        <v>0.2140517721573332</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.313164754308545</v>
+        <v>1.008514091997625</v>
       </c>
       <c r="N2">
-        <v>2.271973175600905</v>
+        <v>0.2751214994196971</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.30717499550363</v>
+        <v>0.8981440721276783</v>
       </c>
       <c r="C3">
-        <v>0.07522581077082435</v>
+        <v>0.1110250840939244</v>
       </c>
       <c r="D3">
-        <v>0.2413997069272682</v>
+        <v>0.1652493849521193</v>
       </c>
       <c r="E3">
-        <v>0.0564648847029261</v>
+        <v>0.04348057344491529</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.814544085355905</v>
+        <v>1.592244141218913</v>
       </c>
       <c r="H3">
-        <v>1.193579702287323</v>
+        <v>0.01259330059054026</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0207115564664675</v>
       </c>
       <c r="J3">
-        <v>0.02373036781963656</v>
+        <v>1.017770210474197</v>
       </c>
       <c r="K3">
-        <v>1.055370295738442</v>
+        <v>1.15440765916378</v>
       </c>
       <c r="L3">
-        <v>0.2009338917469208</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2840305423408047</v>
+        <v>0.8758589794748559</v>
       </c>
       <c r="N3">
-        <v>2.310642656935869</v>
+        <v>0.2399831323368034</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.213991904046594</v>
+        <v>0.8160526925900911</v>
       </c>
       <c r="C4">
-        <v>0.069686631224954</v>
+        <v>0.1007806603674339</v>
       </c>
       <c r="D4">
-        <v>0.2328687280436981</v>
+        <v>0.149928519989416</v>
       </c>
       <c r="E4">
-        <v>0.05609306102283185</v>
+        <v>0.03972919734581559</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.77962630235578</v>
+        <v>1.513550418209093</v>
       </c>
       <c r="H4">
-        <v>1.1828505484457</v>
+        <v>0.01498932854917356</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02402468780872002</v>
       </c>
       <c r="J4">
-        <v>0.02343561697208774</v>
+        <v>0.982696699949031</v>
       </c>
       <c r="K4">
-        <v>0.9694102565568699</v>
+        <v>1.109429177920482</v>
       </c>
       <c r="L4">
-        <v>0.1931334438062606</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2665116693629557</v>
+        <v>0.7947966891522924</v>
       </c>
       <c r="N4">
-        <v>2.336308955324796</v>
+        <v>0.2184733557202208</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.176401914195566</v>
+        <v>0.7823491958187674</v>
       </c>
       <c r="C5">
-        <v>0.06743257668149738</v>
+        <v>0.09689085468262704</v>
       </c>
       <c r="D5">
-        <v>0.2294647284022773</v>
+        <v>0.1437154843016657</v>
       </c>
       <c r="E5">
-        <v>0.0559538289478958</v>
+        <v>0.03815431374003531</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.766000383552367</v>
+        <v>1.478709821440901</v>
       </c>
       <c r="H5">
-        <v>1.17881873299595</v>
+        <v>0.01605568029277099</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.02558265226107181</v>
       </c>
       <c r="J5">
-        <v>0.02331518878347083</v>
+        <v>0.9670069055946442</v>
       </c>
       <c r="K5">
-        <v>0.9346731676659772</v>
+        <v>1.089019851251173</v>
       </c>
       <c r="L5">
-        <v>0.1900149922583267</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2594587387327749</v>
+        <v>0.762125155657543</v>
       </c>
       <c r="N5">
-        <v>2.347237909984003</v>
+        <v>0.2097740953805669</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.170182286925154</v>
+        <v>0.7764436663836705</v>
       </c>
       <c r="C6">
-        <v>0.06705843283812385</v>
+        <v>0.09653168573041171</v>
       </c>
       <c r="D6">
-        <v>0.2289037570869681</v>
+        <v>0.1426837653746134</v>
       </c>
       <c r="E6">
-        <v>0.05593144155201379</v>
+        <v>0.03783601534722258</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.763773306127803</v>
+        <v>1.46957895458695</v>
       </c>
       <c r="H6">
-        <v>1.178169383921173</v>
+        <v>0.01624778970841323</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02597803265833676</v>
       </c>
       <c r="J6">
-        <v>0.0232951697077608</v>
+        <v>0.9626982425754704</v>
       </c>
       <c r="K6">
-        <v>0.9289218886570154</v>
+        <v>1.08318427694563</v>
       </c>
       <c r="L6">
-        <v>0.1895007170920238</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2582926174560818</v>
+        <v>0.7570469513720752</v>
       </c>
       <c r="N6">
-        <v>2.349080637130356</v>
+        <v>0.2083958683525964</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.213483445849477</v>
+        <v>0.8147492482767689</v>
       </c>
       <c r="C7">
-        <v>0.06965622170898911</v>
+        <v>0.1015033169508968</v>
       </c>
       <c r="D7">
-        <v>0.2328225324309301</v>
+        <v>0.1498392703867353</v>
       </c>
       <c r="E7">
-        <v>0.05609113399813559</v>
+        <v>0.0395521859640855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.779440138464025</v>
+        <v>1.503937937495195</v>
       </c>
       <c r="H7">
-        <v>1.182794815190761</v>
+        <v>0.01502971330589442</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02438182596957894</v>
       </c>
       <c r="J7">
-        <v>0.02343399424901715</v>
+        <v>0.9778316708720638</v>
       </c>
       <c r="K7">
-        <v>0.9689406358867245</v>
+        <v>1.102478066745711</v>
       </c>
       <c r="L7">
-        <v>0.1930911477101986</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2664162109308066</v>
+        <v>0.795290458674458</v>
       </c>
       <c r="N7">
-        <v>2.336454462750012</v>
+        <v>0.2185355431801383</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.408014752632738</v>
+        <v>0.9846299128294618</v>
       </c>
       <c r="C8">
-        <v>0.08115292969469579</v>
+        <v>0.1231922608684073</v>
       </c>
       <c r="D8">
-        <v>0.2507621517437713</v>
+        <v>0.1817107303776453</v>
       </c>
       <c r="E8">
-        <v>0.05690468249623848</v>
+        <v>0.04727901261613177</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.85396125107448</v>
+        <v>1.66400102976462</v>
       </c>
       <c r="H8">
-        <v>1.206235002490416</v>
+        <v>0.01035319493367792</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01795260699595502</v>
       </c>
       <c r="J8">
-        <v>0.02404412350308149</v>
+        <v>1.049044703579824</v>
       </c>
       <c r="K8">
-        <v>1.14818338312017</v>
+        <v>1.193290805976822</v>
       </c>
       <c r="L8">
-        <v>0.2094737896504455</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3030383246283286</v>
+        <v>0.9639199735936188</v>
       </c>
       <c r="N8">
-        <v>2.284898667865761</v>
+        <v>0.2632287592729057</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.804330325770621</v>
+        <v>1.320162660706018</v>
       </c>
       <c r="C9">
-        <v>0.1039531380351093</v>
+        <v>0.1665733756177019</v>
       </c>
       <c r="D9">
-        <v>0.2885566002404829</v>
+        <v>0.2455719873453575</v>
       </c>
       <c r="E9">
-        <v>0.05891709810390111</v>
+        <v>0.0628285252696088</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.021836881264676</v>
+        <v>1.99426187026674</v>
       </c>
       <c r="H9">
-        <v>1.264167718421788</v>
+        <v>0.004005324950742684</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008581491373612415</v>
       </c>
       <c r="J9">
-        <v>0.025239463489104</v>
+        <v>1.197408914206676</v>
       </c>
       <c r="K9">
-        <v>1.511389474402563</v>
+        <v>1.381222969713491</v>
       </c>
       <c r="L9">
-        <v>0.2437898042622493</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3781195233901613</v>
+        <v>1.296756864964067</v>
       </c>
       <c r="N9">
-        <v>2.199727042398649</v>
+        <v>0.3512527799953489</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.107091503436209</v>
+        <v>1.564416321423778</v>
       </c>
       <c r="C10">
-        <v>0.1210030589170543</v>
+        <v>0.2031628213589443</v>
       </c>
       <c r="D10">
-        <v>0.3182199404134991</v>
+        <v>0.2935614891422631</v>
       </c>
       <c r="E10">
-        <v>0.06067669046270296</v>
+        <v>0.07014280449350707</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.160902628996269</v>
+        <v>2.188278462604131</v>
       </c>
       <c r="H10">
-        <v>1.315149251973565</v>
+        <v>0.001633080513142815</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004531352760679397</v>
       </c>
       <c r="J10">
-        <v>0.02612519786976186</v>
+        <v>1.282109804575867</v>
       </c>
       <c r="K10">
-        <v>1.787670119858689</v>
+        <v>1.483556356054891</v>
       </c>
       <c r="L10">
-        <v>0.2706008211280562</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4357758163432806</v>
+        <v>1.547929968420874</v>
       </c>
       <c r="N10">
-        <v>2.147871050056494</v>
+        <v>0.398456784901029</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.247962593424575</v>
+        <v>1.647425867212831</v>
       </c>
       <c r="C11">
-        <v>0.1288596639628565</v>
+        <v>0.2450750745398267</v>
       </c>
       <c r="D11">
-        <v>0.3321996908877907</v>
+        <v>0.3151828229647435</v>
       </c>
       <c r="E11">
-        <v>0.06154474326528003</v>
+        <v>0.04324539755843126</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.228188130696822</v>
+        <v>1.88690955643554</v>
       </c>
       <c r="H11">
-        <v>1.34044537259183</v>
+        <v>0.02018361062478036</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004357329560038536</v>
       </c>
       <c r="J11">
-        <v>0.02653180924884246</v>
+        <v>1.124202221431091</v>
       </c>
       <c r="K11">
-        <v>1.915966751351817</v>
+        <v>1.259311866238477</v>
       </c>
       <c r="L11">
-        <v>0.2832095999886519</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4626697569266298</v>
+        <v>1.689257237832862</v>
       </c>
       <c r="N11">
-        <v>2.126856432842501</v>
+        <v>0.2762857266286716</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.301815264492063</v>
+        <v>1.666677247170185</v>
       </c>
       <c r="C12">
-        <v>0.1318524526228515</v>
+        <v>0.2738098573924788</v>
       </c>
       <c r="D12">
-        <v>0.3375699788058597</v>
+        <v>0.3232175666559556</v>
       </c>
       <c r="E12">
-        <v>0.06188376815636865</v>
+        <v>0.02777846368160652</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.254301556668565</v>
+        <v>1.62438806358918</v>
       </c>
       <c r="H12">
-        <v>1.350352242696374</v>
+        <v>0.05905532906735544</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.004321598963486828</v>
       </c>
       <c r="J12">
-        <v>0.02668650069594847</v>
+        <v>0.9891284880378066</v>
       </c>
       <c r="K12">
-        <v>1.96497645262707</v>
+        <v>1.075132155654039</v>
       </c>
       <c r="L12">
-        <v>0.2880493776994939</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4729607155745796</v>
+        <v>1.75501842346759</v>
       </c>
       <c r="N12">
-        <v>2.11929213594658</v>
+        <v>0.1826401849750212</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.290193598579435</v>
+        <v>1.636377099890524</v>
       </c>
       <c r="C13">
-        <v>0.1312070619720771</v>
+        <v>0.2949011555375591</v>
       </c>
       <c r="D13">
-        <v>0.3364098791313808</v>
+        <v>0.3210912708249225</v>
       </c>
       <c r="E13">
-        <v>0.06181028448623671</v>
+        <v>0.01993041635024073</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.248648437310919</v>
+        <v>1.362796482962324</v>
       </c>
       <c r="H13">
-        <v>1.348203617032908</v>
+        <v>0.115243048471271</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.004799294938228726</v>
       </c>
       <c r="J13">
-        <v>0.0266531500820939</v>
+        <v>0.856701950505709</v>
       </c>
       <c r="K13">
-        <v>1.954401511927045</v>
+        <v>0.9010347056874011</v>
       </c>
       <c r="L13">
-        <v>0.2870040510712926</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4707394362832176</v>
+        <v>1.767155829370438</v>
       </c>
       <c r="N13">
-        <v>2.120903349116858</v>
+        <v>0.1063239115122059</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.252382569355348</v>
+        <v>1.592604852944191</v>
       </c>
       <c r="C14">
-        <v>0.1291055089850346</v>
+        <v>0.3066879692743782</v>
       </c>
       <c r="D14">
-        <v>0.332639935397566</v>
+        <v>0.3150116953815285</v>
       </c>
       <c r="E14">
-        <v>0.06157242480945513</v>
+        <v>0.01903260802924445</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.230323459705403</v>
+        <v>1.181960606544834</v>
       </c>
       <c r="H14">
-        <v>1.341253695079615</v>
+        <v>0.1650264478436299</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005504540398386659</v>
       </c>
       <c r="J14">
-        <v>0.0265445203105088</v>
+        <v>0.7659986956074647</v>
       </c>
       <c r="K14">
-        <v>1.919989954548214</v>
+        <v>0.785350027575916</v>
       </c>
       <c r="L14">
-        <v>0.2836064313857491</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4635141927652597</v>
+        <v>1.751720712253984</v>
       </c>
       <c r="N14">
-        <v>2.126226086794446</v>
+        <v>0.06390688135737577</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.229290101283652</v>
+        <v>1.571150903644877</v>
       </c>
       <c r="C15">
-        <v>0.1278206479550477</v>
+        <v>0.3080141023805254</v>
       </c>
       <c r="D15">
-        <v>0.3303408994225094</v>
+        <v>0.3113686697505642</v>
       </c>
       <c r="E15">
-        <v>0.0614280902407085</v>
+        <v>0.01933286100373</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.219183156366228</v>
+        <v>1.13363638359769</v>
       </c>
       <c r="H15">
-        <v>1.337040140453183</v>
+        <v>0.1777404924562518</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005954566559496222</v>
       </c>
       <c r="J15">
-        <v>0.02647808061217916</v>
+        <v>0.7422356214268717</v>
       </c>
       <c r="K15">
-        <v>1.898969008777328</v>
+        <v>0.7557998531694281</v>
       </c>
       <c r="L15">
-        <v>0.2815339516172344</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.459102777344917</v>
+        <v>1.736739554819394</v>
       </c>
       <c r="N15">
-        <v>2.129538386790784</v>
+        <v>0.05484993073272904</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.097953160064321</v>
+        <v>1.472016364199305</v>
       </c>
       <c r="C16">
-        <v>0.120491901136063</v>
+        <v>0.2875040145769958</v>
       </c>
       <c r="D16">
-        <v>0.3173166573315029</v>
+        <v>0.2908587551342379</v>
       </c>
       <c r="E16">
-        <v>0.06062137089058872</v>
+        <v>0.01808636494946603</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.15659094151269</v>
+        <v>1.103772280026746</v>
       </c>
       <c r="H16">
-        <v>1.313540535967718</v>
+        <v>0.1660692389757799</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.007676390044533576</v>
       </c>
       <c r="J16">
-        <v>0.02609871455089774</v>
+        <v>0.7324336362782446</v>
       </c>
       <c r="K16">
-        <v>1.779342470305863</v>
+        <v>0.7472995405746801</v>
       </c>
       <c r="L16">
-        <v>0.2697855900646005</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4340325552814761</v>
+        <v>1.625387294111107</v>
       </c>
       <c r="N16">
-        <v>2.149298153812609</v>
+        <v>0.05293845989677237</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.018225496639388</v>
+        <v>1.419313202801135</v>
       </c>
       <c r="C17">
-        <v>0.1160238827270064</v>
+        <v>0.2655387794987547</v>
       </c>
       <c r="D17">
-        <v>0.309455643081165</v>
+        <v>0.278445187556926</v>
       </c>
       <c r="E17">
-        <v>0.06014419443117802</v>
+        <v>0.01677063876696083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.119260992156256</v>
+        <v>1.174007713422299</v>
       </c>
       <c r="H17">
-        <v>1.299680466626171</v>
+        <v>0.1289002369543653</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008685857021273335</v>
       </c>
       <c r="J17">
-        <v>0.02586705676487888</v>
+        <v>0.771776243361785</v>
       </c>
       <c r="K17">
-        <v>1.706659787474308</v>
+        <v>0.7998873979654419</v>
       </c>
       <c r="L17">
-        <v>0.2626879321916107</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4188308815939905</v>
+        <v>1.548537699767195</v>
       </c>
       <c r="N17">
-        <v>2.162095474475151</v>
+        <v>0.0717484867136946</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.972660511132631</v>
+        <v>1.400880519232288</v>
       </c>
       <c r="C18">
-        <v>0.1134632474860098</v>
+        <v>0.2398616848544606</v>
       </c>
       <c r="D18">
-        <v>0.3049794881193861</v>
+        <v>0.2714763675841994</v>
       </c>
       <c r="E18">
-        <v>0.05987606023476211</v>
+        <v>0.01941411417638372</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.098164939245152</v>
+        <v>1.354153006484125</v>
       </c>
       <c r="H18">
-        <v>1.29190495673285</v>
+        <v>0.0761260135797599</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00866949263062633</v>
       </c>
       <c r="J18">
-        <v>0.02573414808835039</v>
+        <v>0.8656642900346441</v>
       </c>
       <c r="K18">
-        <v>1.665097502439636</v>
+        <v>0.9236324333115178</v>
       </c>
       <c r="L18">
-        <v>0.2586439783053152</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4101492310674644</v>
+        <v>1.491847038488231</v>
       </c>
       <c r="N18">
-        <v>2.169697007159229</v>
+        <v>0.1203738271107113</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.957281565036737</v>
+        <v>1.409483988949205</v>
       </c>
       <c r="C19">
-        <v>0.1125977564297358</v>
+        <v>0.216445016598712</v>
       </c>
       <c r="D19">
-        <v>0.3034715258450547</v>
+        <v>0.2693372700732368</v>
       </c>
       <c r="E19">
-        <v>0.05978634376862324</v>
+        <v>0.03122656304211979</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.091085007218851</v>
+        <v>1.612875339068466</v>
       </c>
       <c r="H19">
-        <v>1.289305310616299</v>
+        <v>0.03029498939064013</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008354189567855386</v>
       </c>
       <c r="J19">
-        <v>0.02568919960980054</v>
+        <v>0.9977859383744487</v>
       </c>
       <c r="K19">
-        <v>1.651065475119339</v>
+        <v>1.10022964387759</v>
       </c>
       <c r="L19">
-        <v>0.2572811966899877</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4072200920749225</v>
+        <v>1.45779466506815</v>
       </c>
       <c r="N19">
-        <v>2.172311449856068</v>
+        <v>0.2049354251484061</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.026682006443593</v>
+        <v>1.497225906058986</v>
       </c>
       <c r="C20">
-        <v>0.1164985312319402</v>
+        <v>0.1960098623973039</v>
       </c>
       <c r="D20">
-        <v>0.3102877278076761</v>
+        <v>0.2808391165699362</v>
       </c>
       <c r="E20">
-        <v>0.06019433194183677</v>
+        <v>0.06753444914434681</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.123195618430543</v>
+        <v>2.106915879874634</v>
       </c>
       <c r="H20">
-        <v>1.301135389293734</v>
+        <v>0.002137107676221106</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.006323956796988384</v>
       </c>
       <c r="J20">
-        <v>0.02589168119483887</v>
+        <v>1.244487325912019</v>
       </c>
       <c r="K20">
-        <v>1.714371495528582</v>
+        <v>1.434745619983076</v>
       </c>
       <c r="L20">
-        <v>0.2634394720119531</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4204426370818481</v>
+        <v>1.484714360412994</v>
       </c>
       <c r="N20">
-        <v>2.160708089305444</v>
+        <v>0.3858194283978094</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.263474332426767</v>
+        <v>1.690539452327243</v>
       </c>
       <c r="C21">
-        <v>0.1297222795235768</v>
+        <v>0.2204677469104581</v>
       </c>
       <c r="D21">
-        <v>0.3337451285817252</v>
+        <v>0.3182066214762216</v>
       </c>
       <c r="E21">
-        <v>0.06164200513025442</v>
+        <v>0.07980334218655827</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.235688281227823</v>
+        <v>2.332057838063662</v>
       </c>
       <c r="H21">
-        <v>1.343285947592335</v>
+        <v>0.00055710963908151</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003761959873315845</v>
       </c>
       <c r="J21">
-        <v>0.02657640647986526</v>
+        <v>1.347976065425712</v>
       </c>
       <c r="K21">
-        <v>1.930085461229936</v>
+        <v>1.566215115333165</v>
       </c>
       <c r="L21">
-        <v>0.2846025786988235</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4656334300532734</v>
+        <v>1.674004675443911</v>
       </c>
       <c r="N21">
-        <v>2.124651794764929</v>
+        <v>0.4504573261172879</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.42122156653835</v>
+        <v>1.81701378682709</v>
       </c>
       <c r="C22">
-        <v>0.1384694401491373</v>
+        <v>0.2371914126889152</v>
       </c>
       <c r="D22">
-        <v>0.3495250609581291</v>
+        <v>0.3429250435640228</v>
       </c>
       <c r="E22">
-        <v>0.06264856252717443</v>
+        <v>0.08597265495885864</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.312932810562444</v>
+        <v>2.468863195748071</v>
       </c>
       <c r="H22">
-        <v>1.372757726932548</v>
+        <v>0.0001110560902275459</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.00237465116145863</v>
       </c>
       <c r="J22">
-        <v>0.02702819133164702</v>
+        <v>1.410417029514349</v>
       </c>
       <c r="K22">
-        <v>2.073580128667146</v>
+        <v>1.644852550707824</v>
       </c>
       <c r="L22">
-        <v>0.2988164723759041</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4957966543411771</v>
+        <v>1.798931729821419</v>
       </c>
       <c r="N22">
-        <v>2.103392844471514</v>
+        <v>0.4833953498174992</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.336735547503565</v>
+        <v>1.750550687745402</v>
       </c>
       <c r="C23">
-        <v>0.1337901931041898</v>
+        <v>0.2272745700482801</v>
       </c>
       <c r="D23">
-        <v>0.3410595762033779</v>
+        <v>0.3297145306748206</v>
       </c>
       <c r="E23">
-        <v>0.06210560664070819</v>
+        <v>0.08286900634275085</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.271345586438827</v>
+        <v>2.4066442394967</v>
       </c>
       <c r="H23">
-        <v>1.356843102280834</v>
+        <v>0.0003021669972493868</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002727197147396332</v>
       </c>
       <c r="J23">
-        <v>0.02678660716751047</v>
+        <v>1.382534331589511</v>
       </c>
       <c r="K23">
-        <v>1.996746458682651</v>
+        <v>1.610773107468319</v>
       </c>
       <c r="L23">
-        <v>0.2911931819530764</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4796365498911612</v>
+        <v>1.731068506392802</v>
       </c>
       <c r="N23">
-        <v>2.114519897385861</v>
+        <v>0.4655793546708793</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.022857976825094</v>
+        <v>1.498124482729054</v>
       </c>
       <c r="C24">
-        <v>0.116283917688861</v>
+        <v>0.1921967625274874</v>
       </c>
       <c r="D24">
-        <v>0.3099114080911107</v>
+        <v>0.2802941988432366</v>
       </c>
       <c r="E24">
-        <v>0.06017164550281606</v>
+        <v>0.07093812065631511</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.12141563976715</v>
+        <v>2.155343175784708</v>
       </c>
       <c r="H24">
-        <v>1.300477020012522</v>
+        <v>0.001929800550471095</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.005733009138460865</v>
       </c>
       <c r="J24">
-        <v>0.02588054764898295</v>
+        <v>1.269073593112097</v>
       </c>
       <c r="K24">
-        <v>1.71088433850008</v>
+        <v>1.469495481064982</v>
       </c>
       <c r="L24">
-        <v>0.2630995873409034</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4197137826111828</v>
+        <v>1.47777855070882</v>
       </c>
       <c r="N24">
-        <v>2.161334567294858</v>
+        <v>0.3988871793309698</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.69527760458007</v>
+        <v>1.227622876490841</v>
       </c>
       <c r="C25">
-        <v>0.09774373657000979</v>
+        <v>0.1559749152853698</v>
       </c>
       <c r="D25">
-        <v>0.2780225355434567</v>
+        <v>0.228106140206279</v>
       </c>
       <c r="E25">
-        <v>0.05832539573648532</v>
+        <v>0.05830939882378416</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.973851430171379</v>
+        <v>1.888225944746551</v>
       </c>
       <c r="H25">
-        <v>1.247103916066521</v>
+        <v>0.005417417369657285</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01121284284539659</v>
       </c>
       <c r="J25">
-        <v>0.02491541015715804</v>
+        <v>1.148786397940341</v>
       </c>
       <c r="K25">
-        <v>1.411653174445092</v>
+        <v>1.318480452957601</v>
       </c>
       <c r="L25">
-        <v>0.2342459936641177</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3574089356456014</v>
+        <v>1.207878374226595</v>
       </c>
       <c r="N25">
-        <v>2.220964029962758</v>
+        <v>0.3276649762800474</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.031915985348718</v>
+        <v>0.9982451160275048</v>
       </c>
       <c r="C2">
-        <v>0.1281031566302744</v>
+        <v>0.158457184711807</v>
       </c>
       <c r="D2">
-        <v>0.1904360283652693</v>
+        <v>0.1911390721963215</v>
       </c>
       <c r="E2">
-        <v>0.04960043312914131</v>
+        <v>0.04354628647273451</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.720261095562364</v>
+        <v>1.279571886044778</v>
       </c>
       <c r="H2">
-        <v>0.009242583701359858</v>
+        <v>0.006907388890893318</v>
       </c>
       <c r="I2">
-        <v>0.01603862788123323</v>
+        <v>0.01156283389294099</v>
       </c>
       <c r="J2">
-        <v>1.074910265505224</v>
+        <v>0.8600959052994597</v>
       </c>
       <c r="K2">
-        <v>1.227169227217559</v>
+        <v>0.8999502741776197</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3673053823383299</v>
       </c>
       <c r="M2">
-        <v>1.008514091997625</v>
+        <v>0.3080011150434174</v>
       </c>
       <c r="N2">
-        <v>0.2751214994196971</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.06069439545476</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2903516920934095</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8981440721276783</v>
+        <v>0.8699414851798224</v>
       </c>
       <c r="C3">
-        <v>0.1110250840939244</v>
+        <v>0.1354799555576847</v>
       </c>
       <c r="D3">
-        <v>0.1652493849521193</v>
+        <v>0.165943787363716</v>
       </c>
       <c r="E3">
-        <v>0.04348057344491529</v>
+        <v>0.03860678144844343</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.592244141218913</v>
+        <v>1.209662773110892</v>
       </c>
       <c r="H3">
-        <v>0.01259330059054026</v>
+        <v>0.009512314829380947</v>
       </c>
       <c r="I3">
-        <v>0.0207115564664675</v>
+        <v>0.01493560173065811</v>
       </c>
       <c r="J3">
-        <v>1.017770210474197</v>
+        <v>0.8232237580332367</v>
       </c>
       <c r="K3">
-        <v>1.15440765916378</v>
+        <v>0.8650368328779408</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3617219020671598</v>
       </c>
       <c r="M3">
-        <v>0.8758589794748559</v>
+        <v>0.2890018652118655</v>
       </c>
       <c r="N3">
-        <v>0.2399831323368034</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9207816540236422</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2539354205092224</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8160526925900911</v>
+        <v>0.7910448224320419</v>
       </c>
       <c r="C4">
-        <v>0.1007806603674339</v>
+        <v>0.1216948024808175</v>
       </c>
       <c r="D4">
-        <v>0.149928519989416</v>
+        <v>0.1506040836461722</v>
       </c>
       <c r="E4">
-        <v>0.03972919734581559</v>
+        <v>0.0355653568168357</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.513550418209093</v>
+        <v>1.16669940774068</v>
       </c>
       <c r="H4">
-        <v>0.01498932854917356</v>
+        <v>0.01138442143492277</v>
       </c>
       <c r="I4">
-        <v>0.02402468780872002</v>
+        <v>0.01734928400744584</v>
       </c>
       <c r="J4">
-        <v>0.982696699949031</v>
+        <v>0.8002334611167896</v>
       </c>
       <c r="K4">
-        <v>1.109429177920482</v>
+        <v>0.8432154275449193</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3578654005652595</v>
       </c>
       <c r="M4">
-        <v>0.7947966891522924</v>
+        <v>0.2780147682407161</v>
       </c>
       <c r="N4">
-        <v>0.2184733557202208</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8351693119349477</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2316266716910036</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7823491958187674</v>
+        <v>0.7586366188558884</v>
       </c>
       <c r="C5">
-        <v>0.09689085468262704</v>
+        <v>0.116407087846909</v>
       </c>
       <c r="D5">
-        <v>0.1437154843016657</v>
+        <v>0.1443806646417585</v>
       </c>
       <c r="E5">
-        <v>0.03815431374003531</v>
+        <v>0.03428542541361068</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.478709821440901</v>
+        <v>1.147132900727442</v>
       </c>
       <c r="H5">
-        <v>0.01605568029277099</v>
+        <v>0.01221945839370098</v>
       </c>
       <c r="I5">
-        <v>0.02558265226107181</v>
+        <v>0.01852462736793914</v>
       </c>
       <c r="J5">
-        <v>0.9670069055946442</v>
+        <v>0.7896997291436776</v>
       </c>
       <c r="K5">
-        <v>1.089019851251173</v>
+        <v>0.83277588776199</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3555736909871783</v>
       </c>
       <c r="M5">
-        <v>0.762125155657543</v>
+        <v>0.2732352908371141</v>
       </c>
       <c r="N5">
-        <v>0.2097740953805669</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8005939079147026</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2225920921318476</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7764436663836705</v>
+        <v>0.7529824763240072</v>
       </c>
       <c r="C6">
-        <v>0.09653168573041171</v>
+        <v>0.1158471740755687</v>
       </c>
       <c r="D6">
-        <v>0.1426837653746134</v>
+        <v>0.1433473406248424</v>
       </c>
       <c r="E6">
-        <v>0.03783601534722258</v>
+        <v>0.03402689822003424</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.46957895458695</v>
+        <v>1.141393793409961</v>
       </c>
       <c r="H6">
-        <v>0.01624778970841323</v>
+        <v>0.01236977225957664</v>
       </c>
       <c r="I6">
-        <v>0.02597803265833676</v>
+        <v>0.0188665122589402</v>
       </c>
       <c r="J6">
-        <v>0.9626982425754704</v>
+        <v>0.7866314901875171</v>
       </c>
       <c r="K6">
-        <v>1.08318427694563</v>
+        <v>0.8292685745479176</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3544401817681475</v>
       </c>
       <c r="M6">
-        <v>0.7570469513720752</v>
+        <v>0.2718760885374714</v>
       </c>
       <c r="N6">
-        <v>0.2083958683525964</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7951628742956132</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2211497009836165</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8147492482767689</v>
+        <v>0.7901736373136146</v>
       </c>
       <c r="C7">
-        <v>0.1015033169508968</v>
+        <v>0.1220742726949879</v>
       </c>
       <c r="D7">
-        <v>0.1498392703867353</v>
+        <v>0.1505125746480331</v>
       </c>
       <c r="E7">
-        <v>0.0395521859640855</v>
+        <v>0.0354634065219539</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.503937937495195</v>
+        <v>1.162203976463658</v>
       </c>
       <c r="H7">
-        <v>0.01502971330589442</v>
+        <v>0.0114251873277595</v>
       </c>
       <c r="I7">
-        <v>0.02438182596957894</v>
+        <v>0.01774691190444155</v>
       </c>
       <c r="J7">
-        <v>0.9778316708720638</v>
+        <v>0.7874445234381113</v>
       </c>
       <c r="K7">
-        <v>1.102478066745711</v>
+        <v>0.835896411056666</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3548484031939338</v>
       </c>
       <c r="M7">
-        <v>0.795290458674458</v>
+        <v>0.2755666547631783</v>
       </c>
       <c r="N7">
-        <v>0.2185355431801383</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8351116101570426</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2315642238732636</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9846299128294618</v>
+        <v>0.9540527655596804</v>
       </c>
       <c r="C8">
-        <v>0.1231922608684073</v>
+        <v>0.1502360363531494</v>
       </c>
       <c r="D8">
-        <v>0.1817107303776453</v>
+        <v>0.18240399273256</v>
       </c>
       <c r="E8">
-        <v>0.04727901261613177</v>
+        <v>0.04181390623675441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.66400102976462</v>
+        <v>1.255157958246869</v>
       </c>
       <c r="H8">
-        <v>0.01035319493367792</v>
+        <v>0.007793141948898741</v>
       </c>
       <c r="I8">
-        <v>0.01795260699595502</v>
+        <v>0.01313174082013457</v>
       </c>
       <c r="J8">
-        <v>1.049044703579824</v>
+        <v>0.8130276906582594</v>
       </c>
       <c r="K8">
-        <v>1.193290805976822</v>
+        <v>0.8739455410361288</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3598912690208849</v>
       </c>
       <c r="M8">
-        <v>0.9639199735936188</v>
+        <v>0.2963759289583621</v>
       </c>
       <c r="N8">
-        <v>0.2632287592729057</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.012042132863655</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2776654572131605</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.320162660706018</v>
+        <v>1.275056870559979</v>
       </c>
       <c r="C9">
-        <v>0.1665733756177019</v>
+        <v>0.2082750747334643</v>
       </c>
       <c r="D9">
-        <v>0.2455719873453575</v>
+        <v>0.24618168427412</v>
       </c>
       <c r="E9">
-        <v>0.0628285252696088</v>
+        <v>0.05432230692531448</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.99426187026674</v>
+        <v>1.440438038314966</v>
       </c>
       <c r="H9">
-        <v>0.004005324950742684</v>
+        <v>0.002903113087041609</v>
       </c>
       <c r="I9">
-        <v>0.008581491373612415</v>
+        <v>0.006344413844241892</v>
       </c>
       <c r="J9">
-        <v>1.197408914206676</v>
+        <v>0.8991898229969593</v>
       </c>
       <c r="K9">
-        <v>1.381222969713491</v>
+        <v>0.9626859181026717</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3732971762996584</v>
       </c>
       <c r="M9">
-        <v>1.296756864964067</v>
+        <v>0.3485241932392213</v>
       </c>
       <c r="N9">
-        <v>0.3512527799953489</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.361990832360078</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3686959242394323</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.564416321423778</v>
+        <v>1.510342174958993</v>
       </c>
       <c r="C10">
-        <v>0.2031628213589443</v>
+        <v>0.2533264042001662</v>
       </c>
       <c r="D10">
-        <v>0.2935614891422631</v>
+        <v>0.2939807652936679</v>
       </c>
       <c r="E10">
-        <v>0.07014280449350707</v>
+        <v>0.06008770617569681</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.188278462604131</v>
+        <v>1.56013950656515</v>
       </c>
       <c r="H10">
-        <v>0.001633080513142815</v>
+        <v>0.001186468929334161</v>
       </c>
       <c r="I10">
-        <v>0.004531352760679397</v>
+        <v>0.003595223531502434</v>
       </c>
       <c r="J10">
-        <v>1.282109804575867</v>
+        <v>0.8944040262409487</v>
       </c>
       <c r="K10">
-        <v>1.483556356054891</v>
+        <v>0.9913746490737907</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3687103841470361</v>
       </c>
       <c r="M10">
-        <v>1.547929968420874</v>
+        <v>0.3765611455080844</v>
       </c>
       <c r="N10">
-        <v>0.398456784901029</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.621446057842036</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4167977468083848</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.647425867212831</v>
+        <v>1.600572027034815</v>
       </c>
       <c r="C11">
-        <v>0.2450750745398267</v>
+        <v>0.291721897836581</v>
       </c>
       <c r="D11">
-        <v>0.3151828229647435</v>
+        <v>0.3155563854670191</v>
       </c>
       <c r="E11">
-        <v>0.04324539755843126</v>
+        <v>0.03701167725102117</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.88690955643554</v>
+        <v>1.38014619257666</v>
       </c>
       <c r="H11">
-        <v>0.02018361062478036</v>
+        <v>0.01978539621606146</v>
       </c>
       <c r="I11">
-        <v>0.004357329560038536</v>
+        <v>0.003757399580051057</v>
       </c>
       <c r="J11">
-        <v>1.124202221431091</v>
+        <v>0.697549368624351</v>
       </c>
       <c r="K11">
-        <v>1.259311866238477</v>
+        <v>0.8186300382758134</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3018507851306111</v>
       </c>
       <c r="M11">
-        <v>1.689257237832862</v>
+        <v>0.3153418461163398</v>
       </c>
       <c r="N11">
-        <v>0.2762857266286716</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.754105253079473</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2895609961440044</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.666677247170185</v>
+        <v>1.626781006578852</v>
       </c>
       <c r="C12">
-        <v>0.2738098573924788</v>
+        <v>0.3157658767355542</v>
       </c>
       <c r="D12">
-        <v>0.3232175666559556</v>
+        <v>0.3236134266633002</v>
       </c>
       <c r="E12">
-        <v>0.02777846368160652</v>
+        <v>0.02425885934274596</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.62438806358918</v>
+        <v>1.212824066978754</v>
       </c>
       <c r="H12">
-        <v>0.05905532906735544</v>
+        <v>0.05862385956302063</v>
       </c>
       <c r="I12">
-        <v>0.004321598963486828</v>
+        <v>0.003721820814458709</v>
       </c>
       <c r="J12">
-        <v>0.9891284880378066</v>
+        <v>0.5830004592227596</v>
       </c>
       <c r="K12">
-        <v>1.075132155654039</v>
+        <v>0.6948602362609932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2572979115093936</v>
       </c>
       <c r="M12">
-        <v>1.75501842346759</v>
+        <v>0.2677165350743209</v>
       </c>
       <c r="N12">
-        <v>0.1826401849750212</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.812152071950862</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1923999484759236</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.636377099890524</v>
+        <v>1.602880088457084</v>
       </c>
       <c r="C13">
-        <v>0.2949011555375591</v>
+        <v>0.3327418524680752</v>
       </c>
       <c r="D13">
-        <v>0.3210912708249225</v>
+        <v>0.3215800020059305</v>
       </c>
       <c r="E13">
-        <v>0.01993041635024073</v>
+        <v>0.01859823727104548</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.362796482962324</v>
+        <v>1.031106414679101</v>
       </c>
       <c r="H13">
-        <v>0.115243048471271</v>
+        <v>0.1146921203928741</v>
       </c>
       <c r="I13">
-        <v>0.004799294938228726</v>
+        <v>0.004003188942077074</v>
       </c>
       <c r="J13">
-        <v>0.856701950505709</v>
+        <v>0.5207360052224601</v>
       </c>
       <c r="K13">
-        <v>0.9010347056874011</v>
+        <v>0.59506041305454</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2236506016664315</v>
       </c>
       <c r="M13">
-        <v>1.767155829370438</v>
+        <v>0.22642284415722</v>
       </c>
       <c r="N13">
-        <v>0.1063239115122059</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.818126001270969</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1134463829517145</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.592604852944191</v>
+        <v>1.563338372565426</v>
       </c>
       <c r="C14">
-        <v>0.3066879692743782</v>
+        <v>0.3418980391887487</v>
       </c>
       <c r="D14">
-        <v>0.3150116953815285</v>
+        <v>0.3155914200307279</v>
       </c>
       <c r="E14">
-        <v>0.01903260802924445</v>
+        <v>0.0190160304798761</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.181960606544834</v>
+        <v>0.9001031254601202</v>
       </c>
       <c r="H14">
-        <v>0.1650264478436299</v>
+        <v>0.1643423634237138</v>
       </c>
       <c r="I14">
-        <v>0.005504540398386659</v>
+        <v>0.004478971039639568</v>
       </c>
       <c r="J14">
-        <v>0.7659986956074647</v>
+        <v>0.4947378052206375</v>
       </c>
       <c r="K14">
-        <v>0.785350027575916</v>
+        <v>0.5347196668866374</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2041326968851322</v>
       </c>
       <c r="M14">
-        <v>1.751720712253984</v>
+        <v>0.2003058131882227</v>
       </c>
       <c r="N14">
-        <v>0.06390688135737577</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.79897453958975</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06949930780169211</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.571150903644877</v>
+        <v>1.542858832946564</v>
       </c>
       <c r="C15">
-        <v>0.3080141023805254</v>
+        <v>0.3428215534644607</v>
       </c>
       <c r="D15">
-        <v>0.3113686697505642</v>
+        <v>0.3119836338974693</v>
       </c>
       <c r="E15">
-        <v>0.01933286100373</v>
+        <v>0.01963881452545468</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.13363638359769</v>
+        <v>0.8633538642564957</v>
       </c>
       <c r="H15">
-        <v>0.1777404924562518</v>
+        <v>0.1769935864472814</v>
       </c>
       <c r="I15">
-        <v>0.005954566559496222</v>
+        <v>0.004838747506988206</v>
       </c>
       <c r="J15">
-        <v>0.7422356214268717</v>
+        <v>0.4942431660437876</v>
       </c>
       <c r="K15">
-        <v>0.7557998531694281</v>
+        <v>0.5215156092271798</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.200171312068278</v>
       </c>
       <c r="M15">
-        <v>1.736739554819394</v>
+        <v>0.1941298930309898</v>
       </c>
       <c r="N15">
-        <v>0.05484993073272904</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.783343480400333</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06013053411219005</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.472016364199305</v>
+        <v>1.443238655729857</v>
       </c>
       <c r="C16">
-        <v>0.2875040145769958</v>
+        <v>0.3243507137814845</v>
       </c>
       <c r="D16">
-        <v>0.2908587551342379</v>
+        <v>0.2915861381021756</v>
       </c>
       <c r="E16">
-        <v>0.01808636494946603</v>
+        <v>0.01860293605665753</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.103772280026746</v>
+        <v>0.8298018099472984</v>
       </c>
       <c r="H16">
-        <v>0.1660692389757799</v>
+        <v>0.1650083591919866</v>
       </c>
       <c r="I16">
-        <v>0.007676390044533576</v>
+        <v>0.006036999360868656</v>
       </c>
       <c r="J16">
-        <v>0.7324336362782446</v>
+        <v>0.5517689944696826</v>
       </c>
       <c r="K16">
-        <v>0.7472995405746801</v>
+        <v>0.5385795799165507</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2089993519593349</v>
       </c>
       <c r="M16">
-        <v>1.625387294111107</v>
+        <v>0.1968482376042715</v>
       </c>
       <c r="N16">
-        <v>0.05293845989677237</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.674213370498677</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.058633414116116</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.419313202801135</v>
+        <v>1.388468679567154</v>
       </c>
       <c r="C17">
-        <v>0.2655387794987547</v>
+        <v>0.3044153690978249</v>
       </c>
       <c r="D17">
-        <v>0.278445187556926</v>
+        <v>0.2792014668752785</v>
       </c>
       <c r="E17">
-        <v>0.01677063876696083</v>
+        <v>0.01668419184675241</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.174007713422299</v>
+        <v>0.8736446384498038</v>
       </c>
       <c r="H17">
-        <v>0.1289002369543653</v>
+        <v>0.1276671095466355</v>
       </c>
       <c r="I17">
-        <v>0.008685857021273335</v>
+        <v>0.00676739481976707</v>
       </c>
       <c r="J17">
-        <v>0.771776243361785</v>
+        <v>0.6075200658189317</v>
       </c>
       <c r="K17">
-        <v>0.7998873979654419</v>
+        <v>0.5824159704452399</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2264005317464601</v>
       </c>
       <c r="M17">
-        <v>1.548537699767195</v>
+        <v>0.2116626175525411</v>
       </c>
       <c r="N17">
-        <v>0.0717484867136946</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.600209306194927</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0786119567512813</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.400880519232288</v>
+        <v>1.365645853839453</v>
       </c>
       <c r="C18">
-        <v>0.2398616848544606</v>
+        <v>0.2816661308796995</v>
       </c>
       <c r="D18">
-        <v>0.2714763675841994</v>
+        <v>0.2722099134093696</v>
       </c>
       <c r="E18">
-        <v>0.01941411417638372</v>
+        <v>0.01772486845554955</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.354153006484125</v>
+        <v>0.9944485552521058</v>
       </c>
       <c r="H18">
-        <v>0.0761260135797599</v>
+        <v>0.07487948442453529</v>
       </c>
       <c r="I18">
-        <v>0.00866949263062633</v>
+        <v>0.006660066640165496</v>
       </c>
       <c r="J18">
-        <v>0.8656642900346441</v>
+        <v>0.6848739680335711</v>
       </c>
       <c r="K18">
-        <v>0.9236324333115178</v>
+        <v>0.6660927630453344</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2576774987395041</v>
       </c>
       <c r="M18">
-        <v>1.491847038488231</v>
+        <v>0.2427556577120313</v>
       </c>
       <c r="N18">
-        <v>0.1203738271107113</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.548334274013655</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1295282488561895</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.409483988949205</v>
+        <v>1.368257731693575</v>
       </c>
       <c r="C19">
-        <v>0.216445016598712</v>
+        <v>0.2615324674763571</v>
       </c>
       <c r="D19">
-        <v>0.2693372700732368</v>
+        <v>0.2700119637262048</v>
       </c>
       <c r="E19">
-        <v>0.03122656304211979</v>
+        <v>0.02691504578530513</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.612875339068466</v>
+        <v>1.167150344423007</v>
       </c>
       <c r="H19">
-        <v>0.03029498939064013</v>
+        <v>0.02919401954628142</v>
       </c>
       <c r="I19">
-        <v>0.008354189567855386</v>
+        <v>0.006536392608307295</v>
       </c>
       <c r="J19">
-        <v>0.9977859383744487</v>
+        <v>0.7784997003396086</v>
       </c>
       <c r="K19">
-        <v>1.10022964387759</v>
+        <v>0.7789566209029033</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.298987073999001</v>
       </c>
       <c r="M19">
-        <v>1.45779466506815</v>
+        <v>0.2859022367006574</v>
       </c>
       <c r="N19">
-        <v>0.2049354251484061</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.520388287127986</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.217430072885648</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.497225906058986</v>
+        <v>1.444894500573724</v>
       </c>
       <c r="C20">
-        <v>0.1960098623973039</v>
+        <v>0.2458077475009333</v>
       </c>
       <c r="D20">
-        <v>0.2808391165699362</v>
+        <v>0.2813411684008429</v>
       </c>
       <c r="E20">
-        <v>0.06753444914434681</v>
+        <v>0.05787472048941567</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.106915879874634</v>
+        <v>1.497173831745613</v>
       </c>
       <c r="H20">
-        <v>0.002137107676221106</v>
+        <v>0.001528502101341811</v>
       </c>
       <c r="I20">
-        <v>0.006323956796988384</v>
+        <v>0.005211965421478837</v>
       </c>
       <c r="J20">
-        <v>1.244487325912019</v>
+        <v>0.9155189556803691</v>
       </c>
       <c r="K20">
-        <v>1.434745619983076</v>
+        <v>0.9769460825289684</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3674322136987911</v>
       </c>
       <c r="M20">
-        <v>1.484714360412994</v>
+        <v>0.3663353094176927</v>
       </c>
       <c r="N20">
-        <v>0.3858194283978094</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.557467993232876</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.4042049521376896</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.690539452327243</v>
+        <v>1.635385327538387</v>
       </c>
       <c r="C21">
-        <v>0.2204677469104581</v>
+        <v>0.2688897011594804</v>
       </c>
       <c r="D21">
-        <v>0.3182066214762216</v>
+        <v>0.3183994463664419</v>
       </c>
       <c r="E21">
-        <v>0.07980334218655827</v>
+        <v>0.06889738816716218</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.332057838063662</v>
+        <v>1.692544740030542</v>
       </c>
       <c r="H21">
-        <v>0.00055710963908151</v>
+        <v>0.0003736586435525435</v>
       </c>
       <c r="I21">
-        <v>0.003761959873315845</v>
+        <v>0.003515296888819464</v>
       </c>
       <c r="J21">
-        <v>1.347976065425712</v>
+        <v>0.7838890757224561</v>
       </c>
       <c r="K21">
-        <v>1.566215115333165</v>
+        <v>0.9897065703862182</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3608266774582489</v>
       </c>
       <c r="M21">
-        <v>1.674004675443911</v>
+        <v>0.3848549816259847</v>
       </c>
       <c r="N21">
-        <v>0.4504573261172879</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.745293771096016</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4684276313969349</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.81701378682709</v>
+        <v>1.760660092541769</v>
       </c>
       <c r="C22">
-        <v>0.2371914126889152</v>
+        <v>0.28384132253845</v>
       </c>
       <c r="D22">
-        <v>0.3429250435640228</v>
+        <v>0.3428722169799556</v>
       </c>
       <c r="E22">
-        <v>0.08597265495885864</v>
+        <v>0.07455973357513557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.468863195748071</v>
+        <v>1.821321130499484</v>
       </c>
       <c r="H22">
-        <v>0.0001110560902275459</v>
+        <v>6.79030420220883E-05</v>
       </c>
       <c r="I22">
-        <v>0.00237465116145863</v>
+        <v>0.002424539781438639</v>
       </c>
       <c r="J22">
-        <v>1.410417029514349</v>
+        <v>0.6940770810605272</v>
       </c>
       <c r="K22">
-        <v>1.644852550707824</v>
+        <v>0.9904626214653618</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3539889659408288</v>
       </c>
       <c r="M22">
-        <v>1.798931729821419</v>
+        <v>0.3942798589651559</v>
       </c>
       <c r="N22">
-        <v>0.4833953498174992</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.867830304717074</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.500586375328993</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.750550687745402</v>
+        <v>1.69385222285706</v>
       </c>
       <c r="C23">
-        <v>0.2272745700482801</v>
+        <v>0.2759068596709966</v>
       </c>
       <c r="D23">
-        <v>0.3297145306748206</v>
+        <v>0.3298064158047254</v>
       </c>
       <c r="E23">
-        <v>0.08286900634275085</v>
+        <v>0.07156353090309864</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.4066442394967</v>
+        <v>1.752672165865505</v>
       </c>
       <c r="H23">
-        <v>0.0003021669972493868</v>
+        <v>0.0001952252664501053</v>
       </c>
       <c r="I23">
-        <v>0.002727197147396332</v>
+        <v>0.00257068267214855</v>
       </c>
       <c r="J23">
-        <v>1.382534331589511</v>
+        <v>0.7634096252454441</v>
       </c>
       <c r="K23">
-        <v>1.610773107468319</v>
+        <v>1.001049380612564</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3614087410376357</v>
       </c>
       <c r="M23">
-        <v>1.731068506392802</v>
+        <v>0.3936726463782207</v>
       </c>
       <c r="N23">
-        <v>0.4655793546708793</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.802617637043369</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4834899266429318</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.498124482729054</v>
+        <v>1.444947688151302</v>
       </c>
       <c r="C24">
-        <v>0.1921967625274874</v>
+        <v>0.2419280620015769</v>
       </c>
       <c r="D24">
-        <v>0.2802941988432366</v>
+        <v>0.2807863414060421</v>
       </c>
       <c r="E24">
-        <v>0.07093812065631511</v>
+        <v>0.06082130754593962</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.155343175784708</v>
+        <v>1.529972283895319</v>
       </c>
       <c r="H24">
-        <v>0.001929800550471095</v>
+        <v>0.001341272434503438</v>
       </c>
       <c r="I24">
-        <v>0.005733009138460865</v>
+        <v>0.004543894923246583</v>
       </c>
       <c r="J24">
-        <v>1.269073593112097</v>
+        <v>0.9340159503064456</v>
       </c>
       <c r="K24">
-        <v>1.469495481064982</v>
+        <v>1.000049684517236</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.375930885086575</v>
       </c>
       <c r="M24">
-        <v>1.47777855070882</v>
+        <v>0.3751247082472133</v>
       </c>
       <c r="N24">
-        <v>0.3988871793309698</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.551264820174453</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.417756903048101</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.227622876490841</v>
+        <v>1.186396765613893</v>
       </c>
       <c r="C25">
-        <v>0.1559749152853698</v>
+        <v>0.1944289918583593</v>
       </c>
       <c r="D25">
-        <v>0.228106140206279</v>
+        <v>0.228764285060052</v>
       </c>
       <c r="E25">
-        <v>0.05830939882378416</v>
+        <v>0.05064464007785929</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.888225944746551</v>
+        <v>1.374376879773962</v>
       </c>
       <c r="H25">
-        <v>0.005417417369657285</v>
+        <v>0.003972690975506454</v>
       </c>
       <c r="I25">
-        <v>0.01121284284539659</v>
+        <v>0.008433444303463489</v>
       </c>
       <c r="J25">
-        <v>1.148786397940341</v>
+        <v>0.8826168597985316</v>
       </c>
       <c r="K25">
-        <v>1.318480452957601</v>
+        <v>0.9338249884788041</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3680923055159298</v>
       </c>
       <c r="M25">
-        <v>1.207878374226595</v>
+        <v>0.3318960160837179</v>
       </c>
       <c r="N25">
-        <v>0.3276649762800474</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.26907563892226</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3444195152820271</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
